--- a/Synoptic/Data/2020-11/202011_GHG_GCHeadspace.xlsx
+++ b/Synoptic/Data/2020-11/202011_GHG_GCHeadspace.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carla López Lloreda\Dropbox\Grad school\Research\Delmarva project\Data\GC\Synoptic\2020-11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carla López Lloreda\Dropbox\Grad school\Research\Delmarva project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A1756C-8D44-4273-AE73-EBC2707568E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCDE356F-E1FF-4B86-8FE8-069982EFC35D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="338">
   <si>
     <t>DD-10-023</t>
   </si>
@@ -411,6 +411,132 @@
     <t>CO2_ppm</t>
   </si>
   <si>
+    <t>GC_ID</t>
+  </si>
+  <si>
+    <t>dd-10-001</t>
+  </si>
+  <si>
+    <t>dd-10-002</t>
+  </si>
+  <si>
+    <t>dd-10-003</t>
+  </si>
+  <si>
+    <t>dd-10-004</t>
+  </si>
+  <si>
+    <t>dd-10-005</t>
+  </si>
+  <si>
+    <t>dd-10-006</t>
+  </si>
+  <si>
+    <t>dd-10-007</t>
+  </si>
+  <si>
+    <t>dd-10-008</t>
+  </si>
+  <si>
+    <t>dd-10-009</t>
+  </si>
+  <si>
+    <t>dd-10-010</t>
+  </si>
+  <si>
+    <t>dd-10-011</t>
+  </si>
+  <si>
+    <t>dd-10-012</t>
+  </si>
+  <si>
+    <t>dd-10-013</t>
+  </si>
+  <si>
+    <t>dd-10-014</t>
+  </si>
+  <si>
+    <t>dd-10-015</t>
+  </si>
+  <si>
+    <t>dd-10-016</t>
+  </si>
+  <si>
+    <t>dd-10-017</t>
+  </si>
+  <si>
+    <t>dd-10-018</t>
+  </si>
+  <si>
+    <t>dd-10-019</t>
+  </si>
+  <si>
+    <t>dd-10-020</t>
+  </si>
+  <si>
+    <t>dd-10-021</t>
+  </si>
+  <si>
+    <t>dd-10-022</t>
+  </si>
+  <si>
+    <t>dd-10-023</t>
+  </si>
+  <si>
+    <t>dd-10-024</t>
+  </si>
+  <si>
+    <t>dd-10-025</t>
+  </si>
+  <si>
+    <t>dd-10-026</t>
+  </si>
+  <si>
+    <t>dd-10-027</t>
+  </si>
+  <si>
+    <t>dd-10-028</t>
+  </si>
+  <si>
+    <t>dd-10-029</t>
+  </si>
+  <si>
+    <t>dd-10-030</t>
+  </si>
+  <si>
+    <t>dd-10-031</t>
+  </si>
+  <si>
+    <t>dd-10-032</t>
+  </si>
+  <si>
+    <t>dd-10-033</t>
+  </si>
+  <si>
+    <t>dd-10-034</t>
+  </si>
+  <si>
+    <t>dd-10-035</t>
+  </si>
+  <si>
+    <t>dd-10-036</t>
+  </si>
+  <si>
+    <t>dd-10-037</t>
+  </si>
+  <si>
+    <t>dd-10-038</t>
+  </si>
+  <si>
+    <t>dd-10-039</t>
+  </si>
+  <si>
+    <t>dd-10-040</t>
+  </si>
+  <si>
+    <t>dd-10-112</t>
+  </si>
+  <si>
     <t>Sample_Date</t>
   </si>
   <si>
@@ -898,9 +1024,6 @@
   </si>
   <si>
     <t>WaterV_mL</t>
-  </si>
-  <si>
-    <t>Needed</t>
   </si>
   <si>
     <t>Air</t>
@@ -1025,7 +1148,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1035,6 +1158,7 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1332,10 +1456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S121"/>
+  <dimension ref="A1:T121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
+      <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1345,18 +1469,19 @@
     <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="6" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" customWidth="1"/>
-    <col min="14" max="14" width="60.33203125" customWidth="1"/>
-    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" customWidth="1"/>
+    <col min="15" max="15" width="60.33203125" customWidth="1"/>
+    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>119</v>
       </c>
@@ -1381,41 +1506,44 @@
       <c r="H1" t="s">
         <v>126</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>128</v>
+      <c r="J1" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="M1" t="s">
-        <v>131</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>132</v>
+        <v>171</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N1" t="s">
+        <v>173</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>288</v>
+        <v>174</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>328</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>68</v>
       </c>
@@ -1440,41 +1568,44 @@
       <c r="H2" s="4">
         <v>6413.4484731967495</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="10">
         <v>44134</v>
       </c>
-      <c r="J2" t="s">
-        <v>135</v>
-      </c>
       <c r="K2" t="s">
-        <v>239</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="M2">
+        <v>177</v>
+      </c>
+      <c r="L2" t="s">
+        <v>281</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="N2">
         <v>0</v>
       </c>
-      <c r="N2" t="s">
-        <v>134</v>
-      </c>
       <c r="O2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P2" s="6">
+        <v>176</v>
+      </c>
+      <c r="P2" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q2" s="6">
         <v>12.3</v>
       </c>
-      <c r="Q2" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R2">
-        <v>20</v>
+      <c r="R2" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="S2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>72</v>
       </c>
@@ -1499,41 +1630,44 @@
       <c r="H3" s="4">
         <v>7167.7907736811203</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" s="10">
         <v>44134</v>
       </c>
-      <c r="J3" t="s">
-        <v>136</v>
-      </c>
       <c r="K3" t="s">
-        <v>240</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="M3">
+        <v>178</v>
+      </c>
+      <c r="L3" t="s">
+        <v>282</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="N3">
         <v>0</v>
       </c>
-      <c r="N3" t="s">
-        <v>134</v>
-      </c>
       <c r="O3" t="s">
-        <v>134</v>
-      </c>
-      <c r="P3" s="6">
+        <v>176</v>
+      </c>
+      <c r="P3" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q3" s="6">
         <v>12.3</v>
       </c>
-      <c r="Q3" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R3">
-        <v>20</v>
+      <c r="R3" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="S3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>54</v>
       </c>
@@ -1558,41 +1692,44 @@
       <c r="H4" s="4">
         <v>757.85981870075011</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" s="10">
         <v>44134</v>
       </c>
-      <c r="J4" t="s">
-        <v>137</v>
-      </c>
       <c r="K4" t="s">
-        <v>241</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="M4">
+        <v>179</v>
+      </c>
+      <c r="L4" t="s">
+        <v>283</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="N4">
         <v>0</v>
       </c>
-      <c r="N4" t="s">
-        <v>134</v>
-      </c>
       <c r="O4" t="s">
-        <v>134</v>
-      </c>
-      <c r="P4" s="6">
+        <v>176</v>
+      </c>
+      <c r="P4" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q4" s="6">
         <v>12.3</v>
       </c>
-      <c r="Q4" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R4">
-        <v>20</v>
+      <c r="R4" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="S4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>74</v>
       </c>
@@ -1618,40 +1755,43 @@
         <v>576.40293056048006</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="M5">
+        <v>332</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N5">
         <v>0</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="O5" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R5">
-        <v>20</v>
+        <v>176</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="S5">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>50</v>
       </c>
@@ -1677,40 +1817,43 @@
         <v>690.17443581683017</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="M6">
+        <v>332</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N6">
         <v>0</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="O6" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R6">
-        <v>20</v>
+        <v>176</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="S6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>76</v>
       </c>
@@ -1736,40 +1879,43 @@
         <v>599.71608207500003</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="M7">
+        <v>332</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N7">
         <v>0</v>
       </c>
-      <c r="N7" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="O7" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R7">
-        <v>20</v>
+        <v>176</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="S7">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>55</v>
       </c>
@@ -1794,41 +1940,44 @@
       <c r="H8" s="4">
         <v>3710.0405428737199</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="J8" s="10">
         <v>44134</v>
       </c>
-      <c r="J8" t="s">
-        <v>139</v>
-      </c>
       <c r="K8" t="s">
-        <v>239</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="M8">
+        <v>181</v>
+      </c>
+      <c r="L8" t="s">
+        <v>281</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="N8">
         <v>0</v>
       </c>
-      <c r="N8" t="s">
-        <v>134</v>
-      </c>
       <c r="O8" t="s">
-        <v>134</v>
-      </c>
-      <c r="P8" s="6">
+        <v>176</v>
+      </c>
+      <c r="P8" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q8" s="6">
         <v>13</v>
       </c>
-      <c r="Q8" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R8">
-        <v>20</v>
+      <c r="R8" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="S8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>46</v>
       </c>
@@ -1853,41 +2002,44 @@
       <c r="H9" s="4">
         <v>5156.0826279210805</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9" s="10">
         <v>44134</v>
       </c>
-      <c r="J9" t="s">
-        <v>140</v>
-      </c>
       <c r="K9" t="s">
-        <v>240</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="M9">
+        <v>182</v>
+      </c>
+      <c r="L9" t="s">
+        <v>282</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="N9">
         <v>0</v>
       </c>
-      <c r="N9" t="s">
-        <v>134</v>
-      </c>
       <c r="O9" t="s">
-        <v>134</v>
-      </c>
-      <c r="P9" s="6">
+        <v>176</v>
+      </c>
+      <c r="P9" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q9" s="6">
         <v>13</v>
       </c>
-      <c r="Q9" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R9">
-        <v>20</v>
+      <c r="R9" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="S9">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>45</v>
       </c>
@@ -1912,41 +2064,44 @@
       <c r="H10" s="4">
         <v>647.81628560299998</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="J10" s="10">
         <v>44134</v>
       </c>
-      <c r="J10" t="s">
-        <v>141</v>
-      </c>
       <c r="K10" t="s">
-        <v>241</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="M10">
+        <v>183</v>
+      </c>
+      <c r="L10" t="s">
+        <v>283</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="N10">
         <v>0</v>
       </c>
-      <c r="N10" t="s">
-        <v>134</v>
-      </c>
       <c r="O10" t="s">
-        <v>134</v>
-      </c>
-      <c r="P10" s="6">
+        <v>176</v>
+      </c>
+      <c r="P10" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q10" s="6">
         <v>13</v>
       </c>
-      <c r="Q10" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R10">
-        <v>20</v>
+      <c r="R10" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="S10">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>43</v>
       </c>
@@ -1971,41 +2126,44 @@
       <c r="H11" s="4">
         <v>13719.581267030751</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J11" s="10">
         <v>44134</v>
       </c>
-      <c r="J11" t="s">
-        <v>142</v>
-      </c>
       <c r="K11" t="s">
-        <v>239</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="M11">
+        <v>184</v>
+      </c>
+      <c r="L11" t="s">
+        <v>281</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="N11">
         <v>0</v>
       </c>
-      <c r="N11" t="s">
-        <v>134</v>
-      </c>
       <c r="O11" t="s">
-        <v>134</v>
-      </c>
-      <c r="P11" s="6">
+        <v>176</v>
+      </c>
+      <c r="P11" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q11" s="6">
         <v>14.6</v>
       </c>
-      <c r="Q11" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R11">
-        <v>20</v>
+      <c r="R11" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="S11">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>61</v>
       </c>
@@ -2030,41 +2188,44 @@
       <c r="H12" s="4">
         <v>15765.933200712121</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" s="10">
         <v>44134</v>
       </c>
-      <c r="J12" t="s">
-        <v>143</v>
-      </c>
       <c r="K12" t="s">
-        <v>240</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="M12">
+        <v>185</v>
+      </c>
+      <c r="L12" t="s">
+        <v>282</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="N12">
         <v>0</v>
       </c>
-      <c r="N12" t="s">
-        <v>134</v>
-      </c>
       <c r="O12" t="s">
-        <v>134</v>
-      </c>
-      <c r="P12" s="6">
+        <v>176</v>
+      </c>
+      <c r="P12" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q12" s="6">
         <v>14.6</v>
       </c>
-      <c r="Q12" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R12">
-        <v>20</v>
+      <c r="R12" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="S12">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>49</v>
       </c>
@@ -2089,41 +2250,44 @@
       <c r="H13" s="4">
         <v>18680.419404357235</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" s="10">
         <v>44134</v>
       </c>
-      <c r="J13" t="s">
-        <v>144</v>
-      </c>
       <c r="K13" t="s">
-        <v>241</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="M13">
+        <v>186</v>
+      </c>
+      <c r="L13" t="s">
+        <v>283</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="N13">
         <v>0</v>
       </c>
-      <c r="N13" t="s">
-        <v>134</v>
-      </c>
       <c r="O13" t="s">
-        <v>134</v>
-      </c>
-      <c r="P13" s="6">
+        <v>176</v>
+      </c>
+      <c r="P13" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q13" s="6">
         <v>14.6</v>
       </c>
-      <c r="Q13" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R13">
-        <v>20</v>
+      <c r="R13" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="S13">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>41</v>
       </c>
@@ -2148,41 +2312,44 @@
       <c r="H14" s="4">
         <v>1499.2606638720001</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" s="10">
         <v>44134</v>
       </c>
-      <c r="J14" t="s">
-        <v>145</v>
-      </c>
       <c r="K14" t="s">
-        <v>239</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="M14">
+        <v>187</v>
+      </c>
+      <c r="L14" t="s">
+        <v>281</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="N14">
         <v>1</v>
       </c>
-      <c r="N14" t="s">
-        <v>274</v>
-      </c>
       <c r="O14" t="s">
-        <v>134</v>
-      </c>
-      <c r="P14" s="6">
+        <v>316</v>
+      </c>
+      <c r="P14" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q14" s="6">
         <v>14.6</v>
       </c>
-      <c r="Q14" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R14">
-        <v>20</v>
+      <c r="R14" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="S14">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>65</v>
       </c>
@@ -2207,41 +2374,44 @@
       <c r="H15" s="4">
         <v>20905.095716470434</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" s="10">
         <v>44134</v>
       </c>
-      <c r="J15" t="s">
-        <v>146</v>
-      </c>
       <c r="K15" t="s">
-        <v>240</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="M15">
+        <v>188</v>
+      </c>
+      <c r="L15" t="s">
+        <v>282</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="N15">
         <v>1</v>
       </c>
-      <c r="N15" t="s">
-        <v>274</v>
-      </c>
       <c r="O15" t="s">
-        <v>134</v>
-      </c>
-      <c r="P15" s="6">
+        <v>316</v>
+      </c>
+      <c r="P15" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q15" s="6">
         <v>14.6</v>
       </c>
-      <c r="Q15" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R15">
-        <v>20</v>
+      <c r="R15" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="S15">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>71</v>
       </c>
@@ -2266,41 +2436,44 @@
       <c r="H16" s="4">
         <v>13492.93117923347</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" s="10">
         <v>44134</v>
       </c>
-      <c r="J16" t="s">
-        <v>147</v>
-      </c>
       <c r="K16" t="s">
-        <v>241</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="M16">
+        <v>189</v>
+      </c>
+      <c r="L16" t="s">
+        <v>283</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="N16">
         <v>1</v>
       </c>
-      <c r="N16" t="s">
-        <v>274</v>
-      </c>
       <c r="O16" t="s">
-        <v>134</v>
-      </c>
-      <c r="P16" s="6">
+        <v>316</v>
+      </c>
+      <c r="P16" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q16" s="6">
         <v>14.6</v>
       </c>
-      <c r="Q16" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R16">
-        <v>20</v>
+      <c r="R16" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="S16">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>53</v>
       </c>
@@ -2325,41 +2498,44 @@
       <c r="H17" s="4">
         <v>3011.9346805546802</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" s="10">
         <v>44134</v>
       </c>
-      <c r="J17" t="s">
-        <v>148</v>
-      </c>
       <c r="K17" t="s">
-        <v>239</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="M17">
+        <v>190</v>
+      </c>
+      <c r="L17" t="s">
+        <v>281</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="N17">
         <v>0</v>
       </c>
-      <c r="N17" t="s">
-        <v>134</v>
-      </c>
       <c r="O17" t="s">
-        <v>134</v>
-      </c>
-      <c r="P17" s="6">
+        <v>176</v>
+      </c>
+      <c r="P17" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q17" s="6">
         <v>13.8</v>
       </c>
-      <c r="Q17" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R17">
-        <v>20</v>
+      <c r="R17" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="S17">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>58</v>
       </c>
@@ -2384,41 +2560,44 @@
       <c r="H18" s="4">
         <v>2056.6976177226802</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J18" s="10">
         <v>44134</v>
       </c>
-      <c r="J18" t="s">
-        <v>149</v>
-      </c>
       <c r="K18" t="s">
-        <v>240</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="M18">
+        <v>191</v>
+      </c>
+      <c r="L18" t="s">
+        <v>282</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="N18">
         <v>0</v>
       </c>
-      <c r="N18" t="s">
-        <v>134</v>
-      </c>
       <c r="O18" t="s">
-        <v>134</v>
-      </c>
-      <c r="P18" s="6">
+        <v>176</v>
+      </c>
+      <c r="P18" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q18" s="6">
         <v>13.8</v>
       </c>
-      <c r="Q18" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R18">
-        <v>20</v>
+      <c r="R18" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="S18">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>47</v>
       </c>
@@ -2443,41 +2622,44 @@
       <c r="H19" s="4">
         <v>2957.83417380323</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J19" s="10">
         <v>44134</v>
       </c>
-      <c r="J19" t="s">
-        <v>150</v>
-      </c>
       <c r="K19" t="s">
-        <v>241</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="M19">
+        <v>192</v>
+      </c>
+      <c r="L19" t="s">
+        <v>283</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="N19">
         <v>0</v>
       </c>
-      <c r="N19" t="s">
-        <v>134</v>
-      </c>
       <c r="O19" t="s">
-        <v>134</v>
-      </c>
-      <c r="P19" s="6">
+        <v>176</v>
+      </c>
+      <c r="P19" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q19" s="6">
         <v>13.8</v>
       </c>
-      <c r="Q19" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R19">
-        <v>20</v>
+      <c r="R19" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="S19">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>56</v>
       </c>
@@ -2502,41 +2684,44 @@
       <c r="H20" s="4">
         <v>10119.04900521152</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" s="10">
         <v>44134</v>
       </c>
-      <c r="J20" t="s">
-        <v>151</v>
-      </c>
       <c r="K20" t="s">
-        <v>239</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="M20">
+        <v>193</v>
+      </c>
+      <c r="L20" t="s">
+        <v>281</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="N20">
         <v>0</v>
       </c>
-      <c r="N20" t="s">
-        <v>134</v>
-      </c>
       <c r="O20" t="s">
-        <v>134</v>
-      </c>
-      <c r="P20" s="6">
+        <v>176</v>
+      </c>
+      <c r="P20" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q20" s="6">
         <v>14.4</v>
       </c>
-      <c r="Q20" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R20">
-        <v>20</v>
+      <c r="R20" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="S20">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>44</v>
       </c>
@@ -2561,41 +2746,44 @@
       <c r="H21" s="4">
         <v>1661.4890911999998</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J21" s="10">
         <v>44134</v>
       </c>
-      <c r="J21" t="s">
-        <v>152</v>
-      </c>
       <c r="K21" t="s">
-        <v>240</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="M21">
+        <v>194</v>
+      </c>
+      <c r="L21" t="s">
+        <v>282</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="N21">
         <v>0</v>
       </c>
-      <c r="N21" t="s">
-        <v>134</v>
-      </c>
       <c r="O21" t="s">
-        <v>134</v>
-      </c>
-      <c r="P21" s="6">
+        <v>176</v>
+      </c>
+      <c r="P21" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q21" s="6">
         <v>14.4</v>
       </c>
-      <c r="Q21" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R21">
-        <v>20</v>
+      <c r="R21" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="S21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>52</v>
       </c>
@@ -2620,41 +2808,44 @@
       <c r="H22" s="4">
         <v>9503.03795321088</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="J22" s="10">
         <v>44134</v>
       </c>
-      <c r="J22" t="s">
-        <v>153</v>
-      </c>
       <c r="K22" t="s">
-        <v>241</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="M22">
+        <v>195</v>
+      </c>
+      <c r="L22" t="s">
+        <v>283</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="N22">
         <v>0</v>
       </c>
-      <c r="N22" t="s">
-        <v>134</v>
-      </c>
       <c r="O22" t="s">
-        <v>134</v>
-      </c>
-      <c r="P22" s="6">
+        <v>176</v>
+      </c>
+      <c r="P22" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q22" s="6">
         <v>14.4</v>
       </c>
-      <c r="Q22" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R22">
-        <v>20</v>
+      <c r="R22" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="S22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>75</v>
       </c>
@@ -2679,41 +2870,44 @@
       <c r="H23" s="4">
         <v>16167.81892790528</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="J23" s="10">
         <v>44134</v>
       </c>
-      <c r="J23" t="s">
-        <v>154</v>
-      </c>
       <c r="K23" t="s">
-        <v>239</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="M23">
+        <v>196</v>
+      </c>
+      <c r="L23" t="s">
+        <v>281</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="N23">
         <v>0</v>
       </c>
-      <c r="N23" t="s">
-        <v>134</v>
-      </c>
       <c r="O23" t="s">
-        <v>134</v>
-      </c>
-      <c r="P23" s="6">
+        <v>176</v>
+      </c>
+      <c r="P23" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q23" s="6">
         <v>15.1</v>
       </c>
-      <c r="Q23" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R23">
-        <v>20</v>
+      <c r="R23" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="S23">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>39</v>
       </c>
@@ -2738,41 +2932,44 @@
       <c r="H24" s="4">
         <v>15624.26031050348</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="J24" s="10">
         <v>44134</v>
       </c>
-      <c r="J24" t="s">
-        <v>155</v>
-      </c>
       <c r="K24" t="s">
-        <v>240</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="M24">
+        <v>197</v>
+      </c>
+      <c r="L24" t="s">
+        <v>282</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="N24">
         <v>0</v>
       </c>
-      <c r="N24" t="s">
-        <v>134</v>
-      </c>
       <c r="O24" t="s">
-        <v>134</v>
-      </c>
-      <c r="P24" s="6">
+        <v>176</v>
+      </c>
+      <c r="P24" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q24" s="6">
         <v>15.1</v>
       </c>
-      <c r="Q24" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R24">
-        <v>20</v>
+      <c r="R24" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="S24">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>60</v>
       </c>
@@ -2797,41 +2994,44 @@
       <c r="H25" s="4">
         <v>483.50058590732004</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="J25" s="10">
         <v>44134</v>
       </c>
-      <c r="J25" t="s">
-        <v>156</v>
-      </c>
       <c r="K25" t="s">
-        <v>241</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="M25">
+        <v>198</v>
+      </c>
+      <c r="L25" t="s">
+        <v>283</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="N25">
         <v>0</v>
       </c>
-      <c r="N25" t="s">
-        <v>134</v>
-      </c>
       <c r="O25" t="s">
-        <v>134</v>
-      </c>
-      <c r="P25" s="6">
+        <v>176</v>
+      </c>
+      <c r="P25" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q25" s="6">
         <v>15.1</v>
       </c>
-      <c r="Q25" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R25">
-        <v>20</v>
+      <c r="R25" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="S25">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>73</v>
       </c>
@@ -2856,41 +3056,44 @@
       <c r="H26" s="4">
         <v>3156.2103782854701</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="J26" s="10">
         <v>44134</v>
       </c>
-      <c r="J26" t="s">
-        <v>157</v>
-      </c>
       <c r="K26" t="s">
-        <v>239</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M26">
+        <v>199</v>
+      </c>
+      <c r="L26" t="s">
+        <v>281</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="N26">
         <v>0</v>
       </c>
-      <c r="N26" t="s">
-        <v>134</v>
-      </c>
       <c r="O26" t="s">
-        <v>134</v>
-      </c>
-      <c r="P26" s="6">
+        <v>176</v>
+      </c>
+      <c r="P26" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q26" s="6">
         <v>13.2</v>
       </c>
-      <c r="Q26" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R26">
-        <v>20</v>
+      <c r="R26" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="S26">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>70</v>
       </c>
@@ -2915,41 +3118,44 @@
       <c r="H27" s="4">
         <v>756.01071476075003</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="J27" s="10">
         <v>44134</v>
       </c>
-      <c r="J27" t="s">
-        <v>158</v>
-      </c>
       <c r="K27" t="s">
-        <v>240</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M27">
+        <v>200</v>
+      </c>
+      <c r="L27" t="s">
+        <v>282</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="N27">
         <v>0</v>
       </c>
-      <c r="N27" t="s">
-        <v>134</v>
-      </c>
       <c r="O27" t="s">
-        <v>134</v>
-      </c>
-      <c r="P27" s="6">
+        <v>176</v>
+      </c>
+      <c r="P27" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q27" s="6">
         <v>13.2</v>
       </c>
-      <c r="Q27" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R27">
-        <v>20</v>
+      <c r="R27" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="S27">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>64</v>
       </c>
@@ -2974,41 +3180,44 @@
       <c r="H28" s="4">
         <v>3031.55487623507</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J28" s="10">
         <v>44134</v>
       </c>
-      <c r="J28" t="s">
-        <v>159</v>
-      </c>
       <c r="K28" t="s">
-        <v>241</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M28">
+        <v>201</v>
+      </c>
+      <c r="L28" t="s">
+        <v>283</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="N28">
         <v>0</v>
       </c>
-      <c r="N28" t="s">
-        <v>134</v>
-      </c>
       <c r="O28" t="s">
-        <v>134</v>
-      </c>
-      <c r="P28" s="6">
+        <v>176</v>
+      </c>
+      <c r="P28" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q28" s="6">
         <v>13.2</v>
       </c>
-      <c r="Q28" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R28">
-        <v>20</v>
+      <c r="R28" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="S28">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>48</v>
       </c>
@@ -3033,41 +3242,44 @@
       <c r="H29" s="4">
         <v>5539.0655603242703</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" t="s">
+        <v>155</v>
+      </c>
+      <c r="J29" s="10">
         <v>44136</v>
       </c>
-      <c r="J29" t="s">
-        <v>160</v>
-      </c>
       <c r="K29" t="s">
-        <v>239</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="M29">
+        <v>202</v>
+      </c>
+      <c r="L29" t="s">
+        <v>281</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="N29">
         <v>0</v>
       </c>
-      <c r="N29" t="s">
-        <v>134</v>
-      </c>
       <c r="O29" t="s">
-        <v>134</v>
-      </c>
-      <c r="P29" s="6">
+        <v>176</v>
+      </c>
+      <c r="P29" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q29" s="6">
         <v>9.5</v>
       </c>
-      <c r="Q29" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="R29">
-        <v>20</v>
+      <c r="R29" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="S29">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>69</v>
       </c>
@@ -3092,41 +3304,44 @@
       <c r="H30" s="4">
         <v>5659.4617606092797</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" t="s">
+        <v>156</v>
+      </c>
+      <c r="J30" s="10">
         <v>44136</v>
       </c>
-      <c r="J30" t="s">
-        <v>161</v>
-      </c>
       <c r="K30" t="s">
-        <v>240</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="M30">
+        <v>203</v>
+      </c>
+      <c r="L30" t="s">
+        <v>282</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="N30">
         <v>0</v>
       </c>
-      <c r="N30" t="s">
-        <v>134</v>
-      </c>
       <c r="O30" t="s">
-        <v>134</v>
-      </c>
-      <c r="P30" s="6">
+        <v>176</v>
+      </c>
+      <c r="P30" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q30" s="6">
         <v>9.5</v>
       </c>
-      <c r="Q30" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="R30">
-        <v>20</v>
+      <c r="R30" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="S30">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>67</v>
       </c>
@@ -3151,41 +3366,44 @@
       <c r="H31" s="4">
         <v>4217.2718823658797</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" t="s">
+        <v>157</v>
+      </c>
+      <c r="J31" s="10">
         <v>44136</v>
       </c>
-      <c r="J31" t="s">
-        <v>162</v>
-      </c>
       <c r="K31" t="s">
-        <v>241</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="M31">
+        <v>204</v>
+      </c>
+      <c r="L31" t="s">
+        <v>283</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="N31">
         <v>0</v>
       </c>
-      <c r="N31" t="s">
-        <v>134</v>
-      </c>
       <c r="O31" t="s">
-        <v>134</v>
-      </c>
-      <c r="P31" s="6">
+        <v>176</v>
+      </c>
+      <c r="P31" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q31" s="6">
         <v>9.5</v>
       </c>
-      <c r="Q31" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="R31">
-        <v>20</v>
+      <c r="R31" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="S31">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>59</v>
       </c>
@@ -3210,41 +3428,44 @@
       <c r="H32" s="4">
         <v>536.2478309182701</v>
       </c>
-      <c r="I32" s="6" t="s">
-        <v>134</v>
+      <c r="I32" t="s">
+        <v>158</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>291</v>
+        <v>205</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="M32">
+        <v>332</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N32">
         <v>0</v>
       </c>
-      <c r="N32" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="O32" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="R32">
-        <v>20</v>
+        <v>176</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="S32">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>66</v>
       </c>
@@ -3269,41 +3490,44 @@
       <c r="H33" s="4">
         <v>607.11666576300013</v>
       </c>
-      <c r="I33" s="6" t="s">
-        <v>134</v>
+      <c r="I33" t="s">
+        <v>159</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>291</v>
+        <v>205</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="M33">
+        <v>332</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N33">
         <v>0</v>
       </c>
-      <c r="N33" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="O33" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="R33">
-        <v>20</v>
+        <v>176</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="S33">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>42</v>
       </c>
@@ -3328,41 +3552,44 @@
       <c r="H34" s="4">
         <v>473.32011921147</v>
       </c>
-      <c r="I34" s="6" t="s">
-        <v>134</v>
+      <c r="I34" t="s">
+        <v>160</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>291</v>
+        <v>205</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="M34">
+        <v>332</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N34">
         <v>0</v>
       </c>
-      <c r="N34" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="O34" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="R34">
-        <v>20</v>
+        <v>176</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="S34">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>78</v>
       </c>
@@ -3387,41 +3614,44 @@
       <c r="H35" s="4">
         <v>588.614829923</v>
       </c>
-      <c r="I35" s="6" t="s">
-        <v>134</v>
+      <c r="I35" t="s">
+        <v>161</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="M35">
+        <v>332</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N35">
         <v>0</v>
       </c>
-      <c r="N35" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="O35" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="R35">
-        <v>20</v>
+        <v>176</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="S35">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>51</v>
       </c>
@@ -3446,41 +3676,44 @@
       <c r="H36" s="4">
         <v>576.40293056048006</v>
       </c>
-      <c r="I36" s="6" t="s">
-        <v>134</v>
+      <c r="I36" t="s">
+        <v>162</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="M36">
+        <v>332</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N36">
         <v>0</v>
       </c>
-      <c r="N36" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="O36" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="R36">
-        <v>20</v>
+        <v>176</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="S36">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>77</v>
       </c>
@@ -3505,41 +3738,44 @@
       <c r="H37" s="4">
         <v>549.2017347706701</v>
       </c>
-      <c r="I37" s="6" t="s">
-        <v>134</v>
+      <c r="I37" t="s">
+        <v>163</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="M37">
+        <v>332</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N37">
         <v>0</v>
       </c>
-      <c r="N37" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="O37" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="R37">
-        <v>20</v>
+        <v>176</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="S37">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>40</v>
       </c>
@@ -3564,41 +3800,44 @@
       <c r="H38" s="4">
         <v>5036.7297460669997</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" t="s">
+        <v>164</v>
+      </c>
+      <c r="J38" s="11">
         <v>44136</v>
       </c>
-      <c r="J38" t="s">
-        <v>165</v>
-      </c>
       <c r="K38" t="s">
-        <v>239</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M38">
+        <v>207</v>
+      </c>
+      <c r="L38" t="s">
+        <v>281</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="N38">
         <v>0</v>
       </c>
-      <c r="N38" t="s">
-        <v>134</v>
-      </c>
       <c r="O38" t="s">
-        <v>134</v>
-      </c>
-      <c r="P38" s="6">
+        <v>176</v>
+      </c>
+      <c r="P38" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q38" s="6">
         <v>9.1</v>
       </c>
-      <c r="Q38" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="R38">
-        <v>20</v>
+      <c r="R38" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="S38">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>62</v>
       </c>
@@ -3623,41 +3862,44 @@
       <c r="H39" s="4">
         <v>4846.8547095158701</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" t="s">
+        <v>165</v>
+      </c>
+      <c r="J39" s="11">
         <v>44136</v>
       </c>
-      <c r="J39" t="s">
-        <v>166</v>
-      </c>
       <c r="K39" t="s">
-        <v>240</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M39">
+        <v>208</v>
+      </c>
+      <c r="L39" t="s">
+        <v>282</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="N39">
         <v>0</v>
       </c>
-      <c r="N39" t="s">
-        <v>134</v>
-      </c>
       <c r="O39" t="s">
-        <v>134</v>
-      </c>
-      <c r="P39" s="6">
+        <v>176</v>
+      </c>
+      <c r="P39" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q39" s="6">
         <v>9.1</v>
       </c>
-      <c r="Q39" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="R39">
-        <v>20</v>
+      <c r="R39" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="S39">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>57</v>
       </c>
@@ -3682,41 +3924,44 @@
       <c r="H40" s="4">
         <v>5228.104864438521</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" t="s">
+        <v>166</v>
+      </c>
+      <c r="J40" s="11">
         <v>44136</v>
       </c>
-      <c r="J40" t="s">
-        <v>167</v>
-      </c>
       <c r="K40" t="s">
-        <v>241</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M40">
+        <v>209</v>
+      </c>
+      <c r="L40" t="s">
+        <v>283</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="N40">
         <v>0</v>
       </c>
-      <c r="N40" t="s">
-        <v>134</v>
-      </c>
       <c r="O40" t="s">
-        <v>134</v>
-      </c>
-      <c r="P40" s="6">
+        <v>176</v>
+      </c>
+      <c r="P40" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q40" s="6">
         <v>9.1</v>
       </c>
-      <c r="Q40" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="R40">
-        <v>20</v>
+      <c r="R40" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="S40">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>63</v>
       </c>
@@ -3741,41 +3986,44 @@
       <c r="H41" s="4">
         <v>545.68573597772001</v>
       </c>
-      <c r="I41" t="s">
-        <v>134</v>
+      <c r="I41" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="J41" t="s">
-        <v>296</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="L41" t="s">
-        <v>134</v>
-      </c>
-      <c r="M41">
+        <v>176</v>
+      </c>
+      <c r="K41" t="s">
+        <v>337</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="M41" t="s">
+        <v>176</v>
+      </c>
+      <c r="N41">
         <v>0</v>
       </c>
-      <c r="N41" t="s">
-        <v>134</v>
-      </c>
       <c r="O41" t="s">
-        <v>134</v>
-      </c>
-      <c r="P41" s="6" t="s">
-        <v>290</v>
+        <v>176</v>
+      </c>
+      <c r="P41" t="s">
+        <v>176</v>
       </c>
       <c r="Q41" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="R41">
-        <v>20</v>
+        <v>176</v>
+      </c>
+      <c r="R41" s="6" t="s">
+        <v>325</v>
       </c>
       <c r="S41">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>43</v>
       </c>
@@ -3800,41 +4048,44 @@
       <c r="H42" s="4">
         <v>1115.4251914880001</v>
       </c>
-      <c r="I42" t="s">
-        <v>134</v>
+      <c r="I42" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="J42" t="s">
-        <v>292</v>
+        <v>176</v>
       </c>
       <c r="K42" t="s">
-        <v>239</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s">
-        <v>295</v>
-      </c>
-      <c r="M42">
+        <v>281</v>
+      </c>
+      <c r="M42" t="s">
+        <v>336</v>
+      </c>
+      <c r="N42">
         <v>0</v>
       </c>
-      <c r="N42" t="s">
-        <v>134</v>
-      </c>
       <c r="O42" t="s">
-        <v>134</v>
-      </c>
-      <c r="P42" s="6" t="s">
-        <v>290</v>
+        <v>176</v>
+      </c>
+      <c r="P42" t="s">
+        <v>176</v>
       </c>
       <c r="Q42" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="R42">
-        <v>20</v>
+        <v>176</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>325</v>
       </c>
       <c r="S42">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>70</v>
       </c>
@@ -3859,41 +4110,44 @@
       <c r="H43" s="4">
         <v>1380.47734515248</v>
       </c>
-      <c r="I43" t="s">
-        <v>134</v>
+      <c r="I43" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="J43" t="s">
-        <v>293</v>
+        <v>176</v>
       </c>
       <c r="K43" t="s">
-        <v>240</v>
+        <v>334</v>
       </c>
       <c r="L43" t="s">
-        <v>295</v>
-      </c>
-      <c r="M43">
+        <v>282</v>
+      </c>
+      <c r="M43" t="s">
+        <v>336</v>
+      </c>
+      <c r="N43">
         <v>0</v>
       </c>
-      <c r="N43" t="s">
-        <v>134</v>
-      </c>
       <c r="O43" t="s">
-        <v>134</v>
-      </c>
-      <c r="P43" s="6" t="s">
-        <v>290</v>
+        <v>176</v>
+      </c>
+      <c r="P43" t="s">
+        <v>176</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="R43">
-        <v>20</v>
+        <v>176</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>325</v>
       </c>
       <c r="S43">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>48</v>
       </c>
@@ -3918,41 +4172,44 @@
       <c r="H44" s="4">
         <v>1177.6507899986698</v>
       </c>
-      <c r="I44" t="s">
-        <v>134</v>
+      <c r="I44" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="J44" t="s">
-        <v>294</v>
+        <v>176</v>
       </c>
       <c r="K44" t="s">
-        <v>241</v>
+        <v>335</v>
       </c>
       <c r="L44" t="s">
-        <v>295</v>
-      </c>
-      <c r="M44">
+        <v>283</v>
+      </c>
+      <c r="M44" t="s">
+        <v>336</v>
+      </c>
+      <c r="N44">
         <v>0</v>
       </c>
-      <c r="N44" t="s">
-        <v>134</v>
-      </c>
       <c r="O44" t="s">
-        <v>134</v>
-      </c>
-      <c r="P44" s="6" t="s">
-        <v>290</v>
+        <v>176</v>
+      </c>
+      <c r="P44" t="s">
+        <v>176</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="R44">
-        <v>20</v>
+        <v>176</v>
+      </c>
+      <c r="R44" s="6" t="s">
+        <v>325</v>
       </c>
       <c r="S44">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>39</v>
       </c>
@@ -3977,41 +4234,44 @@
       <c r="H45" s="4">
         <v>6853.8827018750007</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I45" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J45" s="11">
         <v>44136</v>
       </c>
-      <c r="J45" t="s">
-        <v>168</v>
-      </c>
       <c r="K45" t="s">
-        <v>239</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="M45">
+        <v>210</v>
+      </c>
+      <c r="L45" t="s">
+        <v>281</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="N45">
         <v>0</v>
       </c>
-      <c r="N45" t="s">
-        <v>134</v>
-      </c>
-      <c r="O45" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P45" s="6">
+      <c r="O45" t="s">
+        <v>176</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q45" s="6">
         <v>9.9</v>
       </c>
-      <c r="Q45" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="R45">
-        <v>20</v>
+      <c r="R45" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="S45">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>72</v>
       </c>
@@ -4036,41 +4296,44 @@
       <c r="H46" s="4">
         <v>8791.7397724318707</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I46" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J46" s="11">
         <v>44136</v>
       </c>
-      <c r="J46" t="s">
-        <v>169</v>
-      </c>
       <c r="K46" t="s">
-        <v>240</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="M46">
+        <v>211</v>
+      </c>
+      <c r="L46" t="s">
+        <v>282</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="N46">
         <v>0</v>
       </c>
-      <c r="N46" t="s">
-        <v>134</v>
-      </c>
-      <c r="O46" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P46" s="6">
+      <c r="O46" t="s">
+        <v>176</v>
+      </c>
+      <c r="P46" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q46" s="6">
         <v>9.9</v>
       </c>
-      <c r="Q46" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="R46">
-        <v>20</v>
+      <c r="R46" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="S46">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>54</v>
       </c>
@@ -4095,41 +4358,44 @@
       <c r="H47" s="4">
         <v>7275.53015343675</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I47" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" s="11">
         <v>44136</v>
       </c>
-      <c r="J47" t="s">
-        <v>170</v>
-      </c>
       <c r="K47" t="s">
-        <v>241</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="M47">
+        <v>212</v>
+      </c>
+      <c r="L47" t="s">
+        <v>283</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="N47">
         <v>0</v>
       </c>
-      <c r="N47" t="s">
-        <v>134</v>
-      </c>
       <c r="O47" t="s">
-        <v>134</v>
-      </c>
-      <c r="P47" s="6">
+        <v>176</v>
+      </c>
+      <c r="P47" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q47" s="6">
         <v>9.9</v>
       </c>
-      <c r="Q47" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="R47">
-        <v>20</v>
+      <c r="R47" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="S47">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>65</v>
       </c>
@@ -4154,41 +4420,44 @@
       <c r="H48" s="4">
         <v>6246.6672208762802</v>
       </c>
-      <c r="I48" s="10">
+      <c r="I48" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J48" s="11">
         <v>44136</v>
       </c>
-      <c r="J48" t="s">
-        <v>171</v>
-      </c>
       <c r="K48" t="s">
-        <v>239</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M48">
+        <v>213</v>
+      </c>
+      <c r="L48" t="s">
+        <v>281</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="N48">
         <v>0</v>
       </c>
-      <c r="N48" t="s">
-        <v>134</v>
-      </c>
       <c r="O48" t="s">
-        <v>134</v>
-      </c>
-      <c r="P48" s="6">
+        <v>176</v>
+      </c>
+      <c r="P48" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q48" s="6">
         <v>15</v>
       </c>
-      <c r="Q48" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="R48">
-        <v>20</v>
+      <c r="R48" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="S48">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>61</v>
       </c>
@@ -4213,41 +4482,44 @@
       <c r="H49" s="4">
         <v>6512.0908110080009</v>
       </c>
-      <c r="I49" s="10">
+      <c r="I49" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J49" s="11">
         <v>44136</v>
       </c>
-      <c r="J49" t="s">
-        <v>172</v>
-      </c>
       <c r="K49" t="s">
-        <v>240</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M49">
+        <v>214</v>
+      </c>
+      <c r="L49" t="s">
+        <v>282</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="N49">
         <v>0</v>
       </c>
-      <c r="N49" t="s">
-        <v>134</v>
-      </c>
-      <c r="O49" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P49" s="6">
+      <c r="O49" t="s">
+        <v>176</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q49" s="6">
         <v>15</v>
       </c>
-      <c r="Q49" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="R49">
-        <v>20</v>
+      <c r="R49" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="S49">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>67</v>
       </c>
@@ -4272,41 +4544,44 @@
       <c r="H50" s="4">
         <v>6865.0873259571199</v>
       </c>
-      <c r="I50" s="10">
+      <c r="I50" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J50" s="11">
         <v>44136</v>
       </c>
-      <c r="J50" t="s">
-        <v>173</v>
-      </c>
       <c r="K50" t="s">
-        <v>241</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M50">
+        <v>215</v>
+      </c>
+      <c r="L50" t="s">
+        <v>283</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="N50">
         <v>0</v>
       </c>
-      <c r="N50" t="s">
-        <v>134</v>
-      </c>
-      <c r="O50" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P50" s="6">
+      <c r="O50" t="s">
+        <v>176</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q50" s="6">
         <v>15</v>
       </c>
-      <c r="Q50" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="R50">
-        <v>20</v>
+      <c r="R50" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="S50">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>47</v>
       </c>
@@ -4331,41 +4606,44 @@
       <c r="H51" s="4">
         <v>5369.5457644280004</v>
       </c>
-      <c r="I51" s="10">
+      <c r="I51" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J51" s="11">
         <v>44136</v>
       </c>
-      <c r="J51" t="s">
-        <v>174</v>
-      </c>
       <c r="K51" t="s">
-        <v>239</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="M51">
+        <v>216</v>
+      </c>
+      <c r="L51" t="s">
+        <v>281</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="N51">
         <v>0</v>
       </c>
-      <c r="N51" t="s">
-        <v>134</v>
-      </c>
-      <c r="O51" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P51" s="6">
+      <c r="O51" t="s">
+        <v>176</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q51" s="6">
         <v>10</v>
       </c>
-      <c r="Q51" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="R51">
-        <v>20</v>
+      <c r="R51" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="S51">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>56</v>
       </c>
@@ -4390,41 +4668,44 @@
       <c r="H52" s="4">
         <v>4979.0352883538708</v>
       </c>
-      <c r="I52" s="10">
+      <c r="I52" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J52" s="11">
         <v>44136</v>
       </c>
-      <c r="J52" t="s">
-        <v>175</v>
-      </c>
       <c r="K52" t="s">
-        <v>240</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="M52">
+        <v>217</v>
+      </c>
+      <c r="L52" t="s">
+        <v>282</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="N52">
         <v>0</v>
       </c>
-      <c r="N52" t="s">
-        <v>134</v>
-      </c>
       <c r="O52" t="s">
-        <v>134</v>
-      </c>
-      <c r="P52" s="6">
+        <v>176</v>
+      </c>
+      <c r="P52" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q52" s="6">
         <v>10</v>
       </c>
-      <c r="Q52" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="R52">
-        <v>20</v>
+      <c r="R52" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="S52">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>63</v>
       </c>
@@ -4449,41 +4730,44 @@
       <c r="H53" s="4">
         <v>6748.1378939367505</v>
       </c>
-      <c r="I53" s="10">
+      <c r="I53" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J53" s="11">
         <v>44136</v>
       </c>
-      <c r="J53" t="s">
-        <v>176</v>
-      </c>
       <c r="K53" t="s">
-        <v>241</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="M53">
+        <v>218</v>
+      </c>
+      <c r="L53" t="s">
+        <v>283</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="N53">
         <v>0</v>
       </c>
-      <c r="N53" t="s">
-        <v>134</v>
-      </c>
       <c r="O53" t="s">
-        <v>134</v>
-      </c>
-      <c r="P53" s="6">
+        <v>176</v>
+      </c>
+      <c r="P53" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q53" s="6">
         <v>10</v>
       </c>
-      <c r="Q53" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="R53">
-        <v>20</v>
+      <c r="R53" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="S53">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>62</v>
       </c>
@@ -4508,41 +4792,44 @@
       <c r="H54" s="4">
         <v>10127.614031792</v>
       </c>
-      <c r="I54" s="10">
+      <c r="I54" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J54" s="11">
         <v>44136</v>
       </c>
-      <c r="J54" t="s">
-        <v>177</v>
-      </c>
       <c r="K54" t="s">
-        <v>239</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M54">
+        <v>219</v>
+      </c>
+      <c r="L54" t="s">
+        <v>281</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="N54">
         <v>0</v>
       </c>
-      <c r="N54" t="s">
-        <v>134</v>
-      </c>
-      <c r="O54" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P54" s="6">
+      <c r="O54" t="s">
+        <v>176</v>
+      </c>
+      <c r="P54" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q54" s="6">
         <v>14.2</v>
       </c>
-      <c r="Q54" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="R54">
-        <v>20</v>
+      <c r="R54" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="S54">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>77</v>
       </c>
@@ -4567,41 +4854,44 @@
       <c r="H55" s="4">
         <v>12245.640954800001</v>
       </c>
-      <c r="I55" s="10">
+      <c r="I55" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J55" s="11">
         <v>44136</v>
       </c>
-      <c r="J55" t="s">
-        <v>178</v>
-      </c>
       <c r="K55" t="s">
-        <v>240</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M55">
+        <v>220</v>
+      </c>
+      <c r="L55" t="s">
+        <v>282</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="N55">
         <v>0</v>
       </c>
-      <c r="N55" t="s">
-        <v>134</v>
-      </c>
-      <c r="O55" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P55" s="6">
+      <c r="O55" t="s">
+        <v>176</v>
+      </c>
+      <c r="P55" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q55" s="6">
         <v>14.2</v>
       </c>
-      <c r="Q55" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="R55">
-        <v>20</v>
+      <c r="R55" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="S55">
         <v>20</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>40</v>
       </c>
@@ -4626,41 +4916,44 @@
       <c r="H56" s="4">
         <v>11429.330064412281</v>
       </c>
-      <c r="I56" s="10">
+      <c r="I56" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J56" s="11">
         <v>44136</v>
       </c>
-      <c r="J56" t="s">
-        <v>179</v>
-      </c>
       <c r="K56" t="s">
-        <v>241</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M56">
+        <v>221</v>
+      </c>
+      <c r="L56" t="s">
+        <v>283</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="N56">
         <v>0</v>
       </c>
-      <c r="N56" t="s">
-        <v>134</v>
-      </c>
-      <c r="O56" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P56" s="6">
+      <c r="O56" t="s">
+        <v>176</v>
+      </c>
+      <c r="P56" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q56" s="6">
         <v>14.2</v>
       </c>
-      <c r="Q56" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="R56">
-        <v>20</v>
+      <c r="R56" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="S56">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>73</v>
       </c>
@@ -4685,41 +4978,44 @@
       <c r="H57" s="4">
         <v>16099.026386611229</v>
       </c>
-      <c r="I57" s="10">
+      <c r="I57" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J57" s="11">
         <v>44136</v>
       </c>
-      <c r="J57" t="s">
-        <v>180</v>
-      </c>
       <c r="K57" t="s">
-        <v>239</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="M57">
+        <v>222</v>
+      </c>
+      <c r="L57" t="s">
+        <v>281</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="N57">
         <v>0</v>
       </c>
-      <c r="N57" t="s">
-        <v>134</v>
-      </c>
       <c r="O57" t="s">
-        <v>134</v>
-      </c>
-      <c r="P57" s="6">
+        <v>176</v>
+      </c>
+      <c r="P57" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q57" s="6">
         <v>15</v>
       </c>
-      <c r="Q57" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="R57">
-        <v>20</v>
+      <c r="R57" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="S57">
         <v>20</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>52</v>
       </c>
@@ -4744,41 +5040,44 @@
       <c r="H58" s="4">
         <v>17022.168919341631</v>
       </c>
-      <c r="I58" s="10">
+      <c r="I58" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J58" s="11">
         <v>44136</v>
       </c>
-      <c r="J58" t="s">
-        <v>181</v>
-      </c>
       <c r="K58" t="s">
-        <v>240</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="M58">
+        <v>223</v>
+      </c>
+      <c r="L58" t="s">
+        <v>282</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="N58">
         <v>0</v>
       </c>
-      <c r="N58" t="s">
-        <v>134</v>
-      </c>
       <c r="O58" t="s">
-        <v>134</v>
-      </c>
-      <c r="P58" s="6">
+        <v>176</v>
+      </c>
+      <c r="P58" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q58" s="6">
         <v>15</v>
       </c>
-      <c r="Q58" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="R58">
-        <v>20</v>
+      <c r="R58" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="S58">
         <v>20</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>75</v>
       </c>
@@ -4803,41 +5102,44 @@
       <c r="H59" s="4">
         <v>16415.30989306988</v>
       </c>
-      <c r="I59" s="10">
+      <c r="I59" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J59" s="11">
         <v>44136</v>
       </c>
-      <c r="J59" t="s">
-        <v>182</v>
-      </c>
       <c r="K59" t="s">
-        <v>241</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="M59">
+        <v>224</v>
+      </c>
+      <c r="L59" t="s">
+        <v>283</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="N59">
         <v>0</v>
       </c>
-      <c r="N59" t="s">
-        <v>134</v>
-      </c>
-      <c r="O59" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P59" s="6">
+      <c r="O59" t="s">
+        <v>176</v>
+      </c>
+      <c r="P59" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q59" s="6">
         <v>15</v>
       </c>
-      <c r="Q59" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="R59">
-        <v>20</v>
+      <c r="R59" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="S59">
         <v>20</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>53</v>
       </c>
@@ -4862,41 +5164,44 @@
       <c r="H60" s="4">
         <v>706.08016296875007</v>
       </c>
-      <c r="I60" s="6" t="s">
-        <v>134</v>
+      <c r="I60" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="K60" t="s">
-        <v>291</v>
-      </c>
-      <c r="L60" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="M60">
+        <v>176</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="L60" t="s">
+        <v>332</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N60">
         <v>0</v>
       </c>
-      <c r="N60" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="O60" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="Q60" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="R60">
-        <v>20</v>
+        <v>176</v>
+      </c>
+      <c r="R60" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="S60">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>66</v>
       </c>
@@ -4921,41 +5226,44 @@
       <c r="H61" s="4">
         <v>1417.9255323684299</v>
       </c>
-      <c r="I61" s="9">
+      <c r="I61" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J61" s="10">
         <v>44135</v>
       </c>
-      <c r="J61" t="s">
-        <v>184</v>
-      </c>
       <c r="K61" t="s">
-        <v>239</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="M61">
+        <v>226</v>
+      </c>
+      <c r="L61" t="s">
+        <v>281</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="N61">
         <v>0</v>
       </c>
-      <c r="N61" t="s">
-        <v>134</v>
-      </c>
-      <c r="O61" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P61" s="6">
+      <c r="O61" t="s">
+        <v>176</v>
+      </c>
+      <c r="P61" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q61" s="6">
         <v>11.5</v>
       </c>
-      <c r="Q61" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="R61">
-        <v>20</v>
+      <c r="R61" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="S61">
         <v>20</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>69</v>
       </c>
@@ -4980,41 +5288,44 @@
       <c r="H62" s="4">
         <v>2910.1433135316302</v>
       </c>
-      <c r="I62" s="9">
+      <c r="I62" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J62" s="10">
         <v>44135</v>
       </c>
-      <c r="J62" t="s">
-        <v>185</v>
-      </c>
       <c r="K62" t="s">
-        <v>240</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="M62">
+        <v>227</v>
+      </c>
+      <c r="L62" t="s">
+        <v>282</v>
+      </c>
+      <c r="M62" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="N62">
         <v>0</v>
       </c>
-      <c r="N62" t="s">
-        <v>134</v>
-      </c>
       <c r="O62" t="s">
-        <v>134</v>
-      </c>
-      <c r="P62" s="6">
+        <v>176</v>
+      </c>
+      <c r="P62" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q62" s="6">
         <v>11.5</v>
       </c>
-      <c r="Q62" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="R62">
-        <v>20</v>
+      <c r="R62" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="S62">
         <v>20</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>45</v>
       </c>
@@ -5039,41 +5350,44 @@
       <c r="H63" s="4">
         <v>1649.32533140588</v>
       </c>
-      <c r="I63" s="9">
+      <c r="I63" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J63" s="10">
         <v>44135</v>
       </c>
-      <c r="J63" t="s">
-        <v>186</v>
-      </c>
       <c r="K63" t="s">
-        <v>241</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="M63">
+        <v>228</v>
+      </c>
+      <c r="L63" t="s">
+        <v>283</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="N63">
         <v>0</v>
       </c>
-      <c r="N63" t="s">
-        <v>134</v>
-      </c>
       <c r="O63" t="s">
-        <v>134</v>
-      </c>
-      <c r="P63" s="6">
+        <v>176</v>
+      </c>
+      <c r="P63" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q63" s="6">
         <v>11.5</v>
       </c>
-      <c r="Q63" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="R63">
-        <v>20</v>
+      <c r="R63" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="S63">
         <v>20</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>55</v>
       </c>
@@ -5098,41 +5412,44 @@
       <c r="H64" s="4">
         <v>538.28348511852005</v>
       </c>
-      <c r="I64" s="6" t="s">
-        <v>134</v>
+      <c r="I64" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="K64" t="s">
-        <v>291</v>
-      </c>
-      <c r="L64" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="M64">
+        <v>176</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="L64" t="s">
+        <v>332</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N64">
         <v>0</v>
       </c>
-      <c r="N64" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="O64" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="Q64" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="R64">
-        <v>20</v>
+        <v>176</v>
+      </c>
+      <c r="R64" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="S64">
         <v>20</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>58</v>
       </c>
@@ -5157,41 +5474,44 @@
       <c r="H65" s="4">
         <v>674.08281359792011</v>
       </c>
-      <c r="I65" s="6" t="s">
-        <v>134</v>
+      <c r="I65" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="K65" t="s">
-        <v>291</v>
-      </c>
-      <c r="L65" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="M65">
+        <v>176</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="L65" t="s">
+        <v>332</v>
+      </c>
+      <c r="M65" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N65">
         <v>0</v>
       </c>
-      <c r="N65" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="O65" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="P65" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="Q65" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="R65">
-        <v>20</v>
+        <v>176</v>
+      </c>
+      <c r="R65" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="S65">
         <v>20</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>42</v>
       </c>
@@ -5216,41 +5536,44 @@
       <c r="H66" s="4">
         <v>688.87974274352007</v>
       </c>
-      <c r="I66" s="6" t="s">
-        <v>134</v>
+      <c r="I66" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="K66" t="s">
-        <v>291</v>
-      </c>
-      <c r="L66" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="M66">
+        <v>176</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="L66" t="s">
+        <v>332</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N66">
         <v>0</v>
       </c>
-      <c r="N66" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="O66" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="Q66" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="R66">
-        <v>20</v>
+        <v>176</v>
+      </c>
+      <c r="R66" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="S66">
         <v>20</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>78</v>
       </c>
@@ -5275,41 +5598,44 @@
       <c r="H67" s="4">
         <v>3714.9786478767501</v>
       </c>
-      <c r="I67" s="10">
+      <c r="I67" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J67" s="11">
         <v>44136</v>
       </c>
-      <c r="J67" t="s">
-        <v>188</v>
-      </c>
       <c r="K67" t="s">
-        <v>239</v>
-      </c>
-      <c r="L67" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="M67">
+        <v>230</v>
+      </c>
+      <c r="L67" t="s">
+        <v>281</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="N67">
         <v>1</v>
       </c>
-      <c r="N67" t="s">
-        <v>134</v>
-      </c>
       <c r="O67" t="s">
-        <v>281</v>
-      </c>
-      <c r="P67" s="6">
+        <v>176</v>
+      </c>
+      <c r="P67" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q67" s="6">
         <v>10.7</v>
       </c>
-      <c r="Q67" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="R67">
-        <v>20</v>
+      <c r="R67" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="S67">
         <v>20</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>49</v>
       </c>
@@ -5334,41 +5660,44 @@
       <c r="H68" s="4">
         <v>3931.6164381469998</v>
       </c>
-      <c r="I68" s="10">
+      <c r="I68" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J68" s="11">
         <v>44136</v>
       </c>
-      <c r="J68" t="s">
-        <v>189</v>
-      </c>
       <c r="K68" t="s">
-        <v>240</v>
-      </c>
-      <c r="L68" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="M68">
+        <v>231</v>
+      </c>
+      <c r="L68" t="s">
+        <v>282</v>
+      </c>
+      <c r="M68" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="N68">
         <v>1</v>
       </c>
-      <c r="N68" t="s">
-        <v>134</v>
-      </c>
       <c r="O68" t="s">
-        <v>281</v>
-      </c>
-      <c r="P68" s="6">
+        <v>176</v>
+      </c>
+      <c r="P68" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q68" s="6">
         <v>10.7</v>
       </c>
-      <c r="Q68" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="R68">
-        <v>20</v>
+      <c r="R68" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="S68">
         <v>20</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T68">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>64</v>
       </c>
@@ -5393,41 +5722,44 @@
       <c r="H69" s="4">
         <v>3436.6560957900801</v>
       </c>
-      <c r="I69" s="10">
+      <c r="I69" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J69" s="11">
         <v>44136</v>
       </c>
-      <c r="J69" t="s">
-        <v>190</v>
-      </c>
       <c r="K69" t="s">
-        <v>241</v>
-      </c>
-      <c r="L69" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="M69">
+        <v>232</v>
+      </c>
+      <c r="L69" t="s">
+        <v>283</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="N69">
         <v>1</v>
       </c>
-      <c r="N69" t="s">
-        <v>134</v>
-      </c>
       <c r="O69" t="s">
-        <v>281</v>
-      </c>
-      <c r="P69" s="6">
+        <v>176</v>
+      </c>
+      <c r="P69" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q69" s="6">
         <v>10.7</v>
       </c>
-      <c r="Q69" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="R69">
-        <v>20</v>
+      <c r="R69" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="S69">
         <v>20</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>50</v>
       </c>
@@ -5452,41 +5784,44 @@
       <c r="H70" s="4">
         <v>7244.1333461688309</v>
       </c>
-      <c r="I70" s="10">
+      <c r="I70" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J70" s="11">
         <v>44136</v>
       </c>
-      <c r="J70" t="s">
-        <v>191</v>
-      </c>
       <c r="K70" t="s">
-        <v>239</v>
-      </c>
-      <c r="L70" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="M70">
+        <v>233</v>
+      </c>
+      <c r="L70" t="s">
+        <v>281</v>
+      </c>
+      <c r="M70" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="N70">
         <v>1</v>
       </c>
-      <c r="N70" t="s">
-        <v>134</v>
-      </c>
       <c r="O70" t="s">
-        <v>281</v>
-      </c>
-      <c r="P70" s="6">
+        <v>176</v>
+      </c>
+      <c r="P70" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q70" s="6">
         <v>15.5</v>
       </c>
-      <c r="Q70" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="R70">
-        <v>20</v>
+      <c r="R70" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="S70">
         <v>20</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T70">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>59</v>
       </c>
@@ -5511,41 +5846,44 @@
       <c r="H71" s="4">
         <v>7774.6609251946811</v>
       </c>
-      <c r="I71" s="10">
+      <c r="I71" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J71" s="11">
         <v>44136</v>
       </c>
-      <c r="J71" t="s">
-        <v>192</v>
-      </c>
       <c r="K71" t="s">
-        <v>240</v>
-      </c>
-      <c r="L71" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="M71">
+        <v>234</v>
+      </c>
+      <c r="L71" t="s">
+        <v>282</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="N71">
         <v>1</v>
       </c>
-      <c r="N71" t="s">
-        <v>134</v>
-      </c>
       <c r="O71" t="s">
-        <v>281</v>
-      </c>
-      <c r="P71" s="6">
+        <v>176</v>
+      </c>
+      <c r="P71" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q71" s="6">
         <v>15.5</v>
       </c>
-      <c r="Q71" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="R71">
-        <v>20</v>
+      <c r="R71" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="S71">
         <v>20</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>51</v>
       </c>
@@ -5570,41 +5908,44 @@
       <c r="H72" s="4">
         <v>7034.0017720250698</v>
       </c>
-      <c r="I72" s="10">
+      <c r="I72" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J72" s="11">
         <v>44136</v>
       </c>
-      <c r="J72" t="s">
-        <v>193</v>
-      </c>
       <c r="K72" t="s">
-        <v>241</v>
-      </c>
-      <c r="L72" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="M72">
+        <v>235</v>
+      </c>
+      <c r="L72" t="s">
+        <v>283</v>
+      </c>
+      <c r="M72" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="N72">
         <v>1</v>
       </c>
-      <c r="N72" t="s">
-        <v>134</v>
-      </c>
       <c r="O72" t="s">
-        <v>281</v>
-      </c>
-      <c r="P72" s="6">
+        <v>176</v>
+      </c>
+      <c r="P72" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q72" s="6">
         <v>15.5</v>
       </c>
-      <c r="Q72" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="R72">
-        <v>20</v>
+      <c r="R72" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="S72">
         <v>20</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T72">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>74</v>
       </c>
@@ -5629,41 +5970,44 @@
       <c r="H73" s="4">
         <v>27185.774473107002</v>
       </c>
-      <c r="I73" s="10">
+      <c r="I73" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J73" s="11">
         <v>44136</v>
       </c>
-      <c r="J73" t="s">
-        <v>194</v>
-      </c>
       <c r="K73" t="s">
-        <v>239</v>
-      </c>
-      <c r="L73" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M73">
+        <v>236</v>
+      </c>
+      <c r="L73" t="s">
+        <v>281</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="N73">
         <v>1</v>
       </c>
-      <c r="N73" t="s">
-        <v>134</v>
-      </c>
       <c r="O73" t="s">
-        <v>281</v>
-      </c>
-      <c r="P73" s="6">
+        <v>176</v>
+      </c>
+      <c r="P73" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q73" s="6">
         <v>15.2</v>
       </c>
-      <c r="Q73" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="R73">
-        <v>20</v>
+      <c r="R73" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="S73">
         <v>20</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T73">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>44</v>
       </c>
@@ -5688,41 +6032,44 @@
       <c r="H74" s="4">
         <v>27468.788303322086</v>
       </c>
-      <c r="I74" s="10">
+      <c r="I74" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J74" s="11">
         <v>44136</v>
       </c>
-      <c r="J74" t="s">
-        <v>195</v>
-      </c>
       <c r="K74" t="s">
-        <v>240</v>
-      </c>
-      <c r="L74" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M74">
+        <v>237</v>
+      </c>
+      <c r="L74" t="s">
+        <v>282</v>
+      </c>
+      <c r="M74" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="N74">
         <v>1</v>
       </c>
-      <c r="N74" t="s">
-        <v>134</v>
-      </c>
       <c r="O74" t="s">
-        <v>281</v>
-      </c>
-      <c r="P74" s="6">
+        <v>176</v>
+      </c>
+      <c r="P74" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q74" s="6">
         <v>15.2</v>
       </c>
-      <c r="Q74" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="R74">
-        <v>20</v>
+      <c r="R74" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="S74">
         <v>20</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T74">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>76</v>
       </c>
@@ -5747,41 +6094,44 @@
       <c r="H75" s="4">
         <v>28509.099638567481</v>
       </c>
-      <c r="I75" s="10">
+      <c r="I75" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J75" s="11">
         <v>44136</v>
       </c>
-      <c r="J75" t="s">
-        <v>196</v>
-      </c>
       <c r="K75" t="s">
-        <v>241</v>
-      </c>
-      <c r="L75" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M75">
+        <v>238</v>
+      </c>
+      <c r="L75" t="s">
+        <v>283</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="N75">
         <v>1</v>
       </c>
-      <c r="N75" t="s">
-        <v>134</v>
-      </c>
       <c r="O75" t="s">
-        <v>281</v>
-      </c>
-      <c r="P75" s="6">
+        <v>176</v>
+      </c>
+      <c r="P75" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q75" s="6">
         <v>15.2</v>
       </c>
-      <c r="Q75" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="R75">
-        <v>20</v>
+      <c r="R75" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="S75">
         <v>20</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>46</v>
       </c>
@@ -5806,41 +6156,44 @@
       <c r="H76" s="4">
         <v>2469.5192642676302</v>
       </c>
-      <c r="I76" s="10">
+      <c r="I76" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J76" s="11">
         <v>44136</v>
-      </c>
-      <c r="J76" t="s">
-        <v>197</v>
       </c>
       <c r="K76" t="s">
         <v>239</v>
       </c>
-      <c r="L76" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="M76">
+      <c r="L76" t="s">
+        <v>281</v>
+      </c>
+      <c r="M76" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="N76">
         <v>1</v>
       </c>
-      <c r="N76" t="s">
-        <v>134</v>
-      </c>
       <c r="O76" t="s">
-        <v>281</v>
-      </c>
-      <c r="P76" s="6">
+        <v>176</v>
+      </c>
+      <c r="P76" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q76" s="6">
         <v>11</v>
       </c>
-      <c r="Q76" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="R76">
-        <v>20</v>
+      <c r="R76" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="S76">
         <v>20</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>57</v>
       </c>
@@ -5865,41 +6218,44 @@
       <c r="H77" s="4">
         <v>2738.2023880266797</v>
       </c>
-      <c r="I77" s="10">
+      <c r="I77" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J77" s="11">
         <v>44136</v>
-      </c>
-      <c r="J77" t="s">
-        <v>198</v>
       </c>
       <c r="K77" t="s">
         <v>240</v>
       </c>
-      <c r="L77" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="M77">
+      <c r="L77" t="s">
+        <v>282</v>
+      </c>
+      <c r="M77" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="N77">
         <v>1</v>
       </c>
-      <c r="N77" t="s">
-        <v>134</v>
-      </c>
       <c r="O77" t="s">
-        <v>281</v>
-      </c>
-      <c r="P77" s="6">
+        <v>176</v>
+      </c>
+      <c r="P77" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q77" s="6">
         <v>11</v>
       </c>
-      <c r="Q77" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="R77">
-        <v>20</v>
+      <c r="R77" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="S77">
         <v>20</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>71</v>
       </c>
@@ -5924,41 +6280,44 @@
       <c r="H78" s="4">
         <v>3032.8383903480003</v>
       </c>
-      <c r="I78" s="10">
+      <c r="I78" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J78" s="11">
         <v>44136</v>
-      </c>
-      <c r="J78" t="s">
-        <v>199</v>
       </c>
       <c r="K78" t="s">
         <v>241</v>
       </c>
-      <c r="L78" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="M78">
+      <c r="L78" t="s">
+        <v>283</v>
+      </c>
+      <c r="M78" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="N78">
         <v>1</v>
       </c>
-      <c r="N78" t="s">
-        <v>134</v>
-      </c>
       <c r="O78" t="s">
-        <v>281</v>
-      </c>
-      <c r="P78" s="6">
+        <v>176</v>
+      </c>
+      <c r="P78" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q78" s="6">
         <v>11</v>
       </c>
-      <c r="Q78" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="R78">
-        <v>20</v>
+      <c r="R78" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="S78">
         <v>20</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T78">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>60</v>
       </c>
@@ -5983,41 +6342,44 @@
       <c r="H79" s="4">
         <v>1808.70092192123</v>
       </c>
-      <c r="I79" s="10">
+      <c r="I79" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J79" s="11">
         <v>44136</v>
       </c>
-      <c r="J79" t="s">
-        <v>200</v>
-      </c>
       <c r="K79" t="s">
-        <v>239</v>
-      </c>
-      <c r="L79" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="M79">
+        <v>242</v>
+      </c>
+      <c r="L79" t="s">
+        <v>281</v>
+      </c>
+      <c r="M79" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="N79">
         <v>0</v>
       </c>
-      <c r="N79" t="s">
-        <v>134</v>
-      </c>
       <c r="O79" t="s">
-        <v>134</v>
-      </c>
-      <c r="P79" s="6">
+        <v>176</v>
+      </c>
+      <c r="P79" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q79" s="6">
         <v>11.6</v>
       </c>
-      <c r="Q79" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="R79">
-        <v>20</v>
+      <c r="R79" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="S79">
         <v>20</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>68</v>
       </c>
@@ -6042,41 +6404,44 @@
       <c r="H80" s="4">
         <v>3431.5297497540801</v>
       </c>
-      <c r="I80" s="10">
+      <c r="I80" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J80" s="11">
         <v>44136</v>
       </c>
-      <c r="J80" t="s">
-        <v>201</v>
-      </c>
       <c r="K80" t="s">
-        <v>240</v>
-      </c>
-      <c r="L80" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="M80">
+        <v>243</v>
+      </c>
+      <c r="L80" t="s">
+        <v>282</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="N80">
         <v>0</v>
       </c>
-      <c r="N80" t="s">
-        <v>134</v>
-      </c>
       <c r="O80" t="s">
-        <v>134</v>
-      </c>
-      <c r="P80" s="6">
+        <v>176</v>
+      </c>
+      <c r="P80" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q80" s="6">
         <v>11.6</v>
       </c>
-      <c r="Q80" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="R80">
-        <v>20</v>
+      <c r="R80" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="S80">
         <v>20</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T80">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>41</v>
       </c>
@@ -6101,41 +6466,44 @@
       <c r="H81" s="4">
         <v>2178.31127187627</v>
       </c>
-      <c r="I81" s="10">
+      <c r="I81" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J81" s="11">
         <v>44136</v>
       </c>
-      <c r="J81" t="s">
-        <v>202</v>
-      </c>
       <c r="K81" t="s">
-        <v>241</v>
-      </c>
-      <c r="L81" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="M81">
+        <v>244</v>
+      </c>
+      <c r="L81" t="s">
+        <v>283</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="N81">
         <v>0</v>
       </c>
-      <c r="N81" t="s">
-        <v>134</v>
-      </c>
       <c r="O81" t="s">
-        <v>134</v>
-      </c>
-      <c r="P81" s="6">
+        <v>176</v>
+      </c>
+      <c r="P81" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q81" s="6">
         <v>11.6</v>
       </c>
-      <c r="Q81" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="R81">
-        <v>20</v>
+      <c r="R81" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="S81">
         <v>20</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>46</v>
       </c>
@@ -6160,41 +6528,44 @@
       <c r="H82" s="4">
         <v>612.85197996443014</v>
       </c>
-      <c r="I82" s="6" t="s">
-        <v>134</v>
+      <c r="I82" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="K82" t="s">
-        <v>291</v>
-      </c>
-      <c r="L82" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="M82">
+        <v>176</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="L82" t="s">
+        <v>332</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N82">
         <v>0</v>
       </c>
-      <c r="N82" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="O82" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="P82" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="Q82" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R82">
-        <v>20</v>
+        <v>176</v>
+      </c>
+      <c r="R82" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S82">
         <v>20</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T82">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>69</v>
       </c>
@@ -6219,41 +6590,44 @@
       <c r="H83" s="4">
         <v>560.67467875883005</v>
       </c>
-      <c r="I83" s="6" t="s">
-        <v>134</v>
+      <c r="I83" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="K83" t="s">
-        <v>291</v>
-      </c>
-      <c r="L83" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="M83">
+        <v>176</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="L83" t="s">
+        <v>332</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N83">
         <v>0</v>
       </c>
-      <c r="N83" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="O83" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="P83" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="Q83" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R83">
-        <v>20</v>
+        <v>176</v>
+      </c>
+      <c r="R83" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S83">
         <v>20</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T83">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>40</v>
       </c>
@@ -6278,41 +6652,44 @@
       <c r="H84" s="4">
         <v>994.44147719675016</v>
       </c>
-      <c r="I84" s="6" t="s">
-        <v>134</v>
+      <c r="I84" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="K84" t="s">
-        <v>291</v>
-      </c>
-      <c r="L84" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="M84">
+        <v>176</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="L84" t="s">
+        <v>332</v>
+      </c>
+      <c r="M84" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N84">
         <v>0</v>
       </c>
-      <c r="N84" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="O84" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="P84" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="Q84" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R84">
-        <v>20</v>
+        <v>176</v>
+      </c>
+      <c r="R84" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S84">
         <v>20</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T84">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>76</v>
       </c>
@@ -6337,41 +6714,44 @@
       <c r="H85" s="4">
         <v>791.88109055883001</v>
       </c>
-      <c r="I85" s="9">
+      <c r="I85" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J85" s="10">
         <v>44135</v>
       </c>
-      <c r="J85" t="s">
-        <v>204</v>
-      </c>
       <c r="K85" t="s">
-        <v>239</v>
-      </c>
-      <c r="L85" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="M85">
+        <v>246</v>
+      </c>
+      <c r="L85" t="s">
+        <v>281</v>
+      </c>
+      <c r="M85" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="N85">
         <v>1</v>
       </c>
-      <c r="N85" t="s">
-        <v>275</v>
-      </c>
-      <c r="O85" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P85" s="6">
+      <c r="O85" t="s">
+        <v>317</v>
+      </c>
+      <c r="P85" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q85" s="6">
         <v>9.5</v>
       </c>
-      <c r="Q85" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R85">
-        <v>20</v>
+      <c r="R85" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S85">
         <v>20</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T85">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>51</v>
       </c>
@@ -6396,41 +6776,44 @@
       <c r="H86" s="4">
         <v>5691.0498117470006</v>
       </c>
-      <c r="I86" s="9">
+      <c r="I86" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J86" s="10">
         <v>44135</v>
       </c>
-      <c r="J86" t="s">
-        <v>205</v>
-      </c>
       <c r="K86" t="s">
-        <v>240</v>
-      </c>
-      <c r="L86" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="M86">
+        <v>247</v>
+      </c>
+      <c r="L86" t="s">
+        <v>282</v>
+      </c>
+      <c r="M86" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="N86">
         <v>1</v>
       </c>
-      <c r="N86" t="s">
-        <v>275</v>
-      </c>
-      <c r="O86" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P86" s="6">
+      <c r="O86" t="s">
+        <v>317</v>
+      </c>
+      <c r="P86" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q86" s="6">
         <v>9.5</v>
       </c>
-      <c r="Q86" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R86">
-        <v>20</v>
+      <c r="R86" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S86">
         <v>20</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T86">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>73</v>
       </c>
@@ -6455,41 +6838,44 @@
       <c r="H87" s="4">
         <v>4615.8351566660303</v>
       </c>
-      <c r="I87" s="9">
+      <c r="I87" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J87" s="10">
         <v>44135</v>
       </c>
-      <c r="J87" t="s">
-        <v>206</v>
-      </c>
       <c r="K87" t="s">
-        <v>241</v>
-      </c>
-      <c r="L87" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="M87">
+        <v>248</v>
+      </c>
+      <c r="L87" t="s">
+        <v>283</v>
+      </c>
+      <c r="M87" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="N87">
         <v>1</v>
       </c>
-      <c r="N87" t="s">
-        <v>275</v>
-      </c>
-      <c r="O87" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P87" s="6">
+      <c r="O87" t="s">
+        <v>317</v>
+      </c>
+      <c r="P87" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q87" s="6">
         <v>9.5</v>
       </c>
-      <c r="Q87" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R87">
-        <v>20</v>
+      <c r="R87" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S87">
         <v>20</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T87">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>45</v>
       </c>
@@ -6514,41 +6900,44 @@
       <c r="H88" s="4">
         <v>8661.1233632067506</v>
       </c>
-      <c r="I88" s="9">
+      <c r="I88" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J88" s="10">
         <v>44135</v>
       </c>
-      <c r="J88" t="s">
-        <v>207</v>
-      </c>
       <c r="K88" t="s">
-        <v>239</v>
-      </c>
-      <c r="L88" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="M88">
+        <v>249</v>
+      </c>
+      <c r="L88" t="s">
+        <v>281</v>
+      </c>
+      <c r="M88" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="N88">
         <v>1</v>
       </c>
-      <c r="N88" t="s">
-        <v>275</v>
-      </c>
-      <c r="O88" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P88" s="6">
+      <c r="O88" t="s">
+        <v>317</v>
+      </c>
+      <c r="P88" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q88" s="6">
         <v>13.4</v>
       </c>
-      <c r="Q88" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R88">
-        <v>20</v>
+      <c r="R88" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S88">
         <v>20</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T88">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>72</v>
       </c>
@@ -6573,41 +6962,44 @@
       <c r="H89" s="4">
         <v>6568.1826595470011</v>
       </c>
-      <c r="I89" s="9">
+      <c r="I89" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J89" s="10">
         <v>44135</v>
       </c>
-      <c r="J89" t="s">
-        <v>208</v>
-      </c>
       <c r="K89" t="s">
-        <v>240</v>
-      </c>
-      <c r="L89" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="M89">
+        <v>250</v>
+      </c>
+      <c r="L89" t="s">
+        <v>282</v>
+      </c>
+      <c r="M89" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="N89">
         <v>1</v>
       </c>
-      <c r="N89" t="s">
-        <v>275</v>
-      </c>
-      <c r="O89" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P89" s="6">
+      <c r="O89" t="s">
+        <v>317</v>
+      </c>
+      <c r="P89" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q89" s="6">
         <v>13.4</v>
       </c>
-      <c r="Q89" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R89">
-        <v>20</v>
+      <c r="R89" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S89">
         <v>20</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T89">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>48</v>
       </c>
@@ -6632,41 +7024,44 @@
       <c r="H90" s="4">
         <v>730.86165481563012</v>
       </c>
-      <c r="I90" s="9">
+      <c r="I90" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J90" s="10">
         <v>44135</v>
       </c>
-      <c r="J90" t="s">
-        <v>209</v>
-      </c>
       <c r="K90" t="s">
-        <v>241</v>
-      </c>
-      <c r="L90" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="M90">
+        <v>251</v>
+      </c>
+      <c r="L90" t="s">
+        <v>283</v>
+      </c>
+      <c r="M90" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="N90">
         <v>1</v>
       </c>
-      <c r="N90" t="s">
-        <v>275</v>
-      </c>
-      <c r="O90" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P90" s="6">
+      <c r="O90" t="s">
+        <v>317</v>
+      </c>
+      <c r="P90" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q90" s="6">
         <v>13.4</v>
       </c>
-      <c r="Q90" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R90">
-        <v>20</v>
+      <c r="R90" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S90">
         <v>20</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T90">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>66</v>
       </c>
@@ -6691,41 +7086,44 @@
       <c r="H91" s="4">
         <v>4820.4470795937204</v>
       </c>
-      <c r="I91" s="9">
+      <c r="I91" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J91" s="10">
         <v>44135</v>
       </c>
-      <c r="J91" t="s">
-        <v>210</v>
-      </c>
       <c r="K91" t="s">
-        <v>239</v>
-      </c>
-      <c r="L91" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="M91">
+        <v>252</v>
+      </c>
+      <c r="L91" t="s">
+        <v>281</v>
+      </c>
+      <c r="M91" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="N91">
         <v>1</v>
       </c>
-      <c r="N91" t="s">
-        <v>276</v>
-      </c>
-      <c r="O91" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P91" s="6">
+      <c r="O91" t="s">
+        <v>318</v>
+      </c>
+      <c r="P91" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q91" s="6">
         <v>13.3</v>
       </c>
-      <c r="Q91" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R91">
-        <v>20</v>
+      <c r="R91" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S91">
         <v>20</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>44</v>
       </c>
@@ -6750,41 +7148,44 @@
       <c r="H92" s="4">
         <v>4640.2584331790704</v>
       </c>
-      <c r="I92" s="9">
+      <c r="I92" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J92" s="10">
         <v>44135</v>
       </c>
-      <c r="J92" t="s">
-        <v>211</v>
-      </c>
       <c r="K92" t="s">
-        <v>240</v>
-      </c>
-      <c r="L92" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="M92">
+        <v>253</v>
+      </c>
+      <c r="L92" t="s">
+        <v>282</v>
+      </c>
+      <c r="M92" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="N92">
         <v>1</v>
       </c>
-      <c r="N92" t="s">
-        <v>276</v>
-      </c>
-      <c r="O92" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P92" s="6">
+      <c r="O92" t="s">
+        <v>318</v>
+      </c>
+      <c r="P92" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q92" s="6">
         <v>13.3</v>
       </c>
-      <c r="Q92" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R92">
-        <v>20</v>
+      <c r="R92" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S92">
         <v>20</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T92">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>50</v>
       </c>
@@ -6809,41 +7210,44 @@
       <c r="H93" s="4">
         <v>3955.3718786999998</v>
       </c>
-      <c r="I93" s="9">
+      <c r="I93" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J93" s="10">
         <v>44135</v>
       </c>
-      <c r="J93" t="s">
-        <v>212</v>
-      </c>
       <c r="K93" t="s">
-        <v>241</v>
-      </c>
-      <c r="L93" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="M93">
+        <v>254</v>
+      </c>
+      <c r="L93" t="s">
+        <v>283</v>
+      </c>
+      <c r="M93" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="N93">
         <v>1</v>
       </c>
-      <c r="N93" t="s">
-        <v>276</v>
-      </c>
-      <c r="O93" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P93" s="6">
+      <c r="O93" t="s">
+        <v>318</v>
+      </c>
+      <c r="P93" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q93" s="6">
         <v>13.3</v>
       </c>
-      <c r="Q93" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R93">
-        <v>20</v>
+      <c r="R93" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S93">
         <v>20</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T93">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>68</v>
       </c>
@@ -6868,41 +7272,44 @@
       <c r="H94" s="4">
         <v>1716.0349849516799</v>
       </c>
-      <c r="I94" s="9">
+      <c r="I94" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J94" s="10">
         <v>44134</v>
       </c>
-      <c r="J94" t="s">
-        <v>213</v>
-      </c>
       <c r="K94" t="s">
-        <v>239</v>
-      </c>
-      <c r="L94" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="M94">
+        <v>255</v>
+      </c>
+      <c r="L94" t="s">
+        <v>281</v>
+      </c>
+      <c r="M94" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="N94">
         <v>1</v>
       </c>
-      <c r="N94" t="s">
-        <v>275</v>
-      </c>
-      <c r="O94" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P94" s="6">
+      <c r="O94" t="s">
+        <v>317</v>
+      </c>
+      <c r="P94" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q94" s="6">
         <v>12.7</v>
       </c>
-      <c r="Q94" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R94">
-        <v>20</v>
+      <c r="R94" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S94">
         <v>20</v>
       </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T94">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>62</v>
       </c>
@@ -6927,41 +7334,44 @@
       <c r="H95" s="4">
         <v>4325.3171001354804</v>
       </c>
-      <c r="I95" s="9">
+      <c r="I95" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J95" s="10">
         <v>44134</v>
       </c>
-      <c r="J95" t="s">
-        <v>214</v>
-      </c>
       <c r="K95" t="s">
-        <v>240</v>
-      </c>
-      <c r="L95" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="M95">
+        <v>256</v>
+      </c>
+      <c r="L95" t="s">
+        <v>282</v>
+      </c>
+      <c r="M95" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="N95">
         <v>1</v>
       </c>
-      <c r="N95" t="s">
-        <v>275</v>
-      </c>
-      <c r="O95" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P95" s="6">
+      <c r="O95" t="s">
+        <v>317</v>
+      </c>
+      <c r="P95" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q95" s="6">
         <v>12.7</v>
       </c>
-      <c r="Q95" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R95">
-        <v>20</v>
+      <c r="R95" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S95">
         <v>20</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T95">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>78</v>
       </c>
@@ -6986,41 +7396,44 @@
       <c r="H96" s="4">
         <v>1842.2223220880301</v>
       </c>
-      <c r="I96" s="9">
+      <c r="I96" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J96" s="10">
         <v>44134</v>
       </c>
-      <c r="J96" t="s">
-        <v>215</v>
-      </c>
       <c r="K96" t="s">
-        <v>241</v>
-      </c>
-      <c r="L96" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="M96">
+        <v>257</v>
+      </c>
+      <c r="L96" t="s">
+        <v>283</v>
+      </c>
+      <c r="M96" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="N96">
         <v>1</v>
       </c>
-      <c r="N96" t="s">
-        <v>275</v>
-      </c>
-      <c r="O96" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P96" s="6">
+      <c r="O96" t="s">
+        <v>317</v>
+      </c>
+      <c r="P96" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q96" s="6">
         <v>12.7</v>
       </c>
-      <c r="Q96" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R96">
-        <v>20</v>
+      <c r="R96" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S96">
         <v>20</v>
       </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T96">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>56</v>
       </c>
@@ -7045,41 +7458,44 @@
       <c r="H97" s="4">
         <v>4668.8708968430001</v>
       </c>
-      <c r="I97" s="9">
+      <c r="I97" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J97" s="10">
         <v>44135</v>
       </c>
-      <c r="J97" t="s">
-        <v>216</v>
-      </c>
       <c r="K97" t="s">
-        <v>239</v>
-      </c>
-      <c r="L97" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="M97">
+        <v>258</v>
+      </c>
+      <c r="L97" t="s">
+        <v>281</v>
+      </c>
+      <c r="M97" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="N97">
         <v>1</v>
       </c>
-      <c r="N97" t="s">
-        <v>277</v>
-      </c>
-      <c r="O97" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P97" s="6">
+      <c r="O97" t="s">
+        <v>319</v>
+      </c>
+      <c r="P97" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q97" s="6">
         <v>9.9</v>
       </c>
-      <c r="Q97" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R97">
-        <v>20</v>
+      <c r="R97" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S97">
         <v>20</v>
       </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T97">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>52</v>
       </c>
@@ -7104,41 +7520,44 @@
       <c r="H98" s="4">
         <v>4957.1918234282703</v>
       </c>
-      <c r="I98" s="9">
+      <c r="I98" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J98" s="10">
         <v>44135</v>
       </c>
-      <c r="J98" t="s">
-        <v>217</v>
-      </c>
       <c r="K98" t="s">
-        <v>240</v>
-      </c>
-      <c r="L98" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="M98">
+        <v>259</v>
+      </c>
+      <c r="L98" t="s">
+        <v>282</v>
+      </c>
+      <c r="M98" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="N98">
         <v>1</v>
       </c>
-      <c r="N98" t="s">
-        <v>277</v>
-      </c>
-      <c r="O98" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P98" s="6">
+      <c r="O98" t="s">
+        <v>319</v>
+      </c>
+      <c r="P98" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q98" s="6">
         <v>9.9</v>
       </c>
-      <c r="Q98" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R98">
-        <v>20</v>
+      <c r="R98" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S98">
         <v>20</v>
       </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T98">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>70</v>
       </c>
@@ -7163,41 +7582,44 @@
       <c r="H99" s="4">
         <v>709.96397855468012</v>
       </c>
-      <c r="I99" s="9">
+      <c r="I99" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J99" s="10">
         <v>44135</v>
       </c>
-      <c r="J99" t="s">
-        <v>218</v>
-      </c>
       <c r="K99" t="s">
-        <v>241</v>
-      </c>
-      <c r="L99" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="M99">
+        <v>260</v>
+      </c>
+      <c r="L99" t="s">
+        <v>283</v>
+      </c>
+      <c r="M99" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="N99">
         <v>1</v>
       </c>
-      <c r="N99" t="s">
-        <v>277</v>
-      </c>
-      <c r="O99" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P99" s="6">
+      <c r="O99" t="s">
+        <v>319</v>
+      </c>
+      <c r="P99" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q99" s="6">
         <v>9.9</v>
       </c>
-      <c r="Q99" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R99">
-        <v>20</v>
+      <c r="R99" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S99">
         <v>20</v>
       </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T99">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>53</v>
       </c>
@@ -7222,41 +7644,44 @@
       <c r="H100" s="4">
         <v>5504.0077291999996</v>
       </c>
-      <c r="I100" s="9">
+      <c r="I100" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J100" s="10">
         <v>44135</v>
       </c>
-      <c r="J100" t="s">
-        <v>219</v>
-      </c>
       <c r="K100" t="s">
-        <v>239</v>
-      </c>
-      <c r="L100" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="M100">
+        <v>261</v>
+      </c>
+      <c r="L100" t="s">
+        <v>281</v>
+      </c>
+      <c r="M100" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="N100">
         <v>1</v>
       </c>
-      <c r="N100" t="s">
-        <v>278</v>
-      </c>
-      <c r="O100" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P100" s="6">
+      <c r="O100" t="s">
+        <v>320</v>
+      </c>
+      <c r="P100" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q100" s="6">
         <v>10.7</v>
       </c>
-      <c r="Q100" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R100">
-        <v>20</v>
+      <c r="R100" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S100">
         <v>20</v>
       </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>59</v>
       </c>
@@ -7281,41 +7706,44 @@
       <c r="H101" s="4">
         <v>4361.8089201274797</v>
       </c>
-      <c r="I101" s="9">
+      <c r="I101" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J101" s="10">
         <v>44135</v>
       </c>
-      <c r="J101" t="s">
-        <v>220</v>
-      </c>
       <c r="K101" t="s">
-        <v>240</v>
-      </c>
-      <c r="L101" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="M101">
+        <v>262</v>
+      </c>
+      <c r="L101" t="s">
+        <v>282</v>
+      </c>
+      <c r="M101" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="N101">
         <v>1</v>
       </c>
-      <c r="N101" t="s">
-        <v>278</v>
-      </c>
-      <c r="O101" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P101" s="6">
+      <c r="O101" t="s">
+        <v>320</v>
+      </c>
+      <c r="P101" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q101" s="6">
         <v>10.7</v>
       </c>
-      <c r="Q101" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R101">
-        <v>20</v>
+      <c r="R101" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S101">
         <v>20</v>
       </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>60</v>
       </c>
@@ -7340,41 +7768,44 @@
       <c r="H102" s="4">
         <v>656.14045931075009</v>
       </c>
-      <c r="I102" s="9">
+      <c r="I102" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J102" s="10">
         <v>44135</v>
       </c>
-      <c r="J102" t="s">
-        <v>221</v>
-      </c>
       <c r="K102" t="s">
-        <v>241</v>
-      </c>
-      <c r="L102" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="M102">
+        <v>263</v>
+      </c>
+      <c r="L102" t="s">
+        <v>283</v>
+      </c>
+      <c r="M102" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="N102">
         <v>1</v>
       </c>
-      <c r="N102" t="s">
-        <v>278</v>
-      </c>
-      <c r="O102" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P102" s="6">
+      <c r="O102" t="s">
+        <v>320</v>
+      </c>
+      <c r="P102" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q102" s="6">
         <v>10.7</v>
       </c>
-      <c r="Q102" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R102">
-        <v>20</v>
+      <c r="R102" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S102">
         <v>20</v>
       </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>75</v>
       </c>
@@ -7399,41 +7830,44 @@
       <c r="H103" s="4">
         <v>697.57256394243007</v>
       </c>
-      <c r="I103" s="9">
+      <c r="I103" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J103" s="10">
         <v>44135</v>
       </c>
-      <c r="J103" t="s">
-        <v>222</v>
-      </c>
       <c r="K103" t="s">
-        <v>239</v>
-      </c>
-      <c r="L103" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="M103">
+        <v>264</v>
+      </c>
+      <c r="L103" t="s">
+        <v>281</v>
+      </c>
+      <c r="M103" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="N103">
         <v>1</v>
       </c>
-      <c r="N103" t="s">
-        <v>279</v>
-      </c>
-      <c r="O103" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P103" s="6">
+      <c r="O103" t="s">
+        <v>321</v>
+      </c>
+      <c r="P103" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q103" s="6">
         <v>13.6</v>
       </c>
-      <c r="Q103" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R103">
-        <v>20</v>
+      <c r="R103" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S103">
         <v>20</v>
       </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T103">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>41</v>
       </c>
@@ -7458,41 +7892,44 @@
       <c r="H104" s="4">
         <v>6480.4207301967499</v>
       </c>
-      <c r="I104" s="9">
+      <c r="I104" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J104" s="10">
         <v>44135</v>
       </c>
-      <c r="J104" t="s">
-        <v>223</v>
-      </c>
       <c r="K104" t="s">
-        <v>240</v>
-      </c>
-      <c r="L104" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="M104">
+        <v>265</v>
+      </c>
+      <c r="L104" t="s">
+        <v>282</v>
+      </c>
+      <c r="M104" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="N104">
         <v>1</v>
       </c>
-      <c r="N104" t="s">
-        <v>279</v>
-      </c>
-      <c r="O104" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P104" s="6">
+      <c r="O104" t="s">
+        <v>321</v>
+      </c>
+      <c r="P104" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q104" s="6">
         <v>13.6</v>
       </c>
-      <c r="Q104" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R104">
-        <v>20</v>
+      <c r="R104" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S104">
         <v>20</v>
       </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T104">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>63</v>
       </c>
@@ -7517,41 +7954,44 @@
       <c r="H105" s="4">
         <v>3912.7933134454702</v>
       </c>
-      <c r="I105" s="9">
+      <c r="I105" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J105" s="10">
         <v>44135</v>
       </c>
-      <c r="J105" t="s">
-        <v>224</v>
-      </c>
       <c r="K105" t="s">
-        <v>241</v>
-      </c>
-      <c r="L105" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="M105">
+        <v>266</v>
+      </c>
+      <c r="L105" t="s">
+        <v>283</v>
+      </c>
+      <c r="M105" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="N105">
         <v>1</v>
       </c>
-      <c r="N105" t="s">
-        <v>279</v>
-      </c>
-      <c r="O105" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P105" s="6">
+      <c r="O105" t="s">
+        <v>321</v>
+      </c>
+      <c r="P105" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q105" s="6">
         <v>13.6</v>
       </c>
-      <c r="Q105" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R105">
-        <v>20</v>
+      <c r="R105" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S105">
         <v>20</v>
       </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T105">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>67</v>
       </c>
@@ -7576,41 +8016,44 @@
       <c r="H106" s="4">
         <v>10786.608420115321</v>
       </c>
-      <c r="I106" s="9">
+      <c r="I106" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J106" s="10">
         <v>44135</v>
       </c>
-      <c r="J106" t="s">
-        <v>225</v>
-      </c>
       <c r="K106" t="s">
-        <v>239</v>
-      </c>
-      <c r="L106" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="M106">
+        <v>267</v>
+      </c>
+      <c r="L106" t="s">
+        <v>281</v>
+      </c>
+      <c r="M106" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="N106">
         <v>1</v>
       </c>
-      <c r="N106" t="s">
-        <v>275</v>
-      </c>
-      <c r="O106" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P106" s="6">
+      <c r="O106" t="s">
+        <v>317</v>
+      </c>
+      <c r="P106" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q106" s="6">
         <v>14.7</v>
       </c>
-      <c r="Q106" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R106">
-        <v>20</v>
+      <c r="R106" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S106">
         <v>20</v>
       </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T106">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>74</v>
       </c>
@@ -7635,41 +8078,44 @@
       <c r="H107" s="4">
         <v>4201.9375776750003</v>
       </c>
-      <c r="I107" s="9">
+      <c r="I107" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J107" s="10">
         <v>44135</v>
       </c>
-      <c r="J107" t="s">
-        <v>226</v>
-      </c>
       <c r="K107" t="s">
-        <v>240</v>
-      </c>
-      <c r="L107" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="M107">
+        <v>268</v>
+      </c>
+      <c r="L107" t="s">
+        <v>282</v>
+      </c>
+      <c r="M107" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="N107">
         <v>1</v>
       </c>
-      <c r="N107" t="s">
-        <v>275</v>
-      </c>
-      <c r="O107" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P107" s="6">
+      <c r="O107" t="s">
+        <v>317</v>
+      </c>
+      <c r="P107" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q107" s="6">
         <v>14.7</v>
       </c>
-      <c r="Q107" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R107">
-        <v>20</v>
+      <c r="R107" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S107">
         <v>20</v>
       </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T107">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>39</v>
       </c>
@@ -7694,41 +8140,44 @@
       <c r="H108" s="4">
         <v>11328.48024747948</v>
       </c>
-      <c r="I108" s="9">
+      <c r="I108" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J108" s="10">
         <v>44135</v>
       </c>
-      <c r="J108" t="s">
-        <v>227</v>
-      </c>
       <c r="K108" t="s">
-        <v>241</v>
-      </c>
-      <c r="L108" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="M108">
+        <v>269</v>
+      </c>
+      <c r="L108" t="s">
+        <v>283</v>
+      </c>
+      <c r="M108" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="N108">
         <v>1</v>
       </c>
-      <c r="N108" t="s">
-        <v>275</v>
-      </c>
-      <c r="O108" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P108" s="6">
+      <c r="O108" t="s">
+        <v>317</v>
+      </c>
+      <c r="P108" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q108" s="6">
         <v>14.7</v>
       </c>
-      <c r="Q108" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R108">
-        <v>20</v>
+      <c r="R108" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S108">
         <v>20</v>
       </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T108">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>49</v>
       </c>
@@ -7753,41 +8202,44 @@
       <c r="H109" s="4">
         <v>685.36554482187</v>
       </c>
-      <c r="I109" s="9">
+      <c r="I109" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J109" s="10">
         <v>44135</v>
       </c>
-      <c r="J109" t="s">
-        <v>228</v>
-      </c>
       <c r="K109" t="s">
-        <v>239</v>
-      </c>
-      <c r="L109" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="M109">
+        <v>270</v>
+      </c>
+      <c r="L109" t="s">
+        <v>281</v>
+      </c>
+      <c r="M109" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="N109">
         <v>1</v>
       </c>
-      <c r="N109" t="s">
-        <v>275</v>
-      </c>
-      <c r="O109" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P109" s="6">
+      <c r="O109" t="s">
+        <v>317</v>
+      </c>
+      <c r="P109" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q109" s="6">
         <v>16.600000000000001</v>
       </c>
-      <c r="Q109" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R109">
-        <v>20</v>
+      <c r="R109" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S109">
         <v>20</v>
       </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T109">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>58</v>
       </c>
@@ -7812,41 +8264,44 @@
       <c r="H110" s="4">
         <v>22201.893943088005</v>
       </c>
-      <c r="I110" s="9">
+      <c r="I110" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J110" s="10">
         <v>44135</v>
       </c>
-      <c r="J110" t="s">
-        <v>229</v>
-      </c>
       <c r="K110" t="s">
-        <v>240</v>
-      </c>
-      <c r="L110" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="M110">
+      <c r="L110" t="s">
+        <v>282</v>
+      </c>
+      <c r="M110" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="N110">
         <v>1</v>
       </c>
-      <c r="N110" t="s">
-        <v>275</v>
-      </c>
-      <c r="O110" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P110" s="6">
+      <c r="O110" t="s">
+        <v>317</v>
+      </c>
+      <c r="P110" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q110" s="6">
         <v>16.600000000000001</v>
       </c>
-      <c r="Q110" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R110">
-        <v>20</v>
+      <c r="R110" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S110">
         <v>20</v>
       </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T110">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>42</v>
       </c>
@@ -7871,41 +8326,44 @@
       <c r="H111" s="4">
         <v>15203.115726056751</v>
       </c>
-      <c r="I111" s="9">
+      <c r="I111" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J111" s="10">
         <v>44135</v>
       </c>
-      <c r="J111" t="s">
-        <v>230</v>
-      </c>
       <c r="K111" t="s">
-        <v>241</v>
-      </c>
-      <c r="L111" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="M111">
+        <v>272</v>
+      </c>
+      <c r="L111" t="s">
+        <v>283</v>
+      </c>
+      <c r="M111" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="N111">
         <v>1</v>
       </c>
-      <c r="N111" t="s">
-        <v>275</v>
-      </c>
-      <c r="O111" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P111" s="6">
+      <c r="O111" t="s">
+        <v>317</v>
+      </c>
+      <c r="P111" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q111" s="6">
         <v>16.600000000000001</v>
       </c>
-      <c r="Q111" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="R111">
-        <v>20</v>
+      <c r="R111" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="S111">
         <v>20</v>
       </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T111">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>43</v>
       </c>
@@ -7930,41 +8388,44 @@
       <c r="H112" s="4">
         <v>2684.2302234079998</v>
       </c>
-      <c r="I112" s="9">
+      <c r="I112" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J112" s="10">
         <v>44135</v>
       </c>
-      <c r="J112" t="s">
-        <v>231</v>
-      </c>
       <c r="K112" t="s">
-        <v>239</v>
-      </c>
-      <c r="L112" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="M112">
+        <v>273</v>
+      </c>
+      <c r="L112" t="s">
+        <v>281</v>
+      </c>
+      <c r="M112" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="N112">
         <v>1</v>
       </c>
-      <c r="N112" t="s">
-        <v>280</v>
-      </c>
-      <c r="O112" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P112" s="6">
+      <c r="O112" t="s">
+        <v>322</v>
+      </c>
+      <c r="P112" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q112" s="6">
         <v>10.1</v>
       </c>
-      <c r="Q112" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="R112">
-        <v>20</v>
+      <c r="R112" s="6" t="s">
+        <v>326</v>
       </c>
       <c r="S112">
         <v>20</v>
       </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T112">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>65</v>
       </c>
@@ -7989,41 +8450,44 @@
       <c r="H113" s="4">
         <v>1704.24221020352</v>
       </c>
-      <c r="I113" s="9">
+      <c r="I113" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J113" s="10">
         <v>44135</v>
       </c>
-      <c r="J113" t="s">
-        <v>232</v>
-      </c>
       <c r="K113" t="s">
-        <v>240</v>
-      </c>
-      <c r="L113" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="M113">
+        <v>274</v>
+      </c>
+      <c r="L113" t="s">
+        <v>282</v>
+      </c>
+      <c r="M113" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="N113">
         <v>1</v>
       </c>
-      <c r="N113" t="s">
-        <v>280</v>
-      </c>
-      <c r="O113" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P113" s="6">
+      <c r="O113" t="s">
+        <v>322</v>
+      </c>
+      <c r="P113" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q113" s="6">
         <v>10.1</v>
       </c>
-      <c r="Q113" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="R113">
-        <v>20</v>
+      <c r="R113" s="6" t="s">
+        <v>326</v>
       </c>
       <c r="S113">
         <v>20</v>
       </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T113">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>77</v>
       </c>
@@ -8048,41 +8512,44 @@
       <c r="H114" s="4">
         <v>1866.1636333988301</v>
       </c>
-      <c r="I114" s="9">
+      <c r="I114" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J114" s="10">
         <v>44135</v>
       </c>
-      <c r="J114" t="s">
-        <v>233</v>
-      </c>
       <c r="K114" t="s">
-        <v>241</v>
-      </c>
-      <c r="L114" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="M114">
+        <v>275</v>
+      </c>
+      <c r="L114" t="s">
+        <v>283</v>
+      </c>
+      <c r="M114" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="N114">
         <v>1</v>
       </c>
-      <c r="N114" t="s">
-        <v>280</v>
-      </c>
-      <c r="O114" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P114" s="6">
+      <c r="O114" t="s">
+        <v>322</v>
+      </c>
+      <c r="P114" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q114" s="6">
         <v>10.1</v>
       </c>
-      <c r="Q114" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="R114">
-        <v>20</v>
+      <c r="R114" s="6" t="s">
+        <v>326</v>
       </c>
       <c r="S114">
         <v>20</v>
       </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T114">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>55</v>
       </c>
@@ -8107,41 +8574,44 @@
       <c r="H115" s="4">
         <v>731.97122112675015</v>
       </c>
-      <c r="I115" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="J115" t="s">
-        <v>234</v>
+      <c r="I115" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J115" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="K115" t="s">
-        <v>291</v>
-      </c>
-      <c r="L115" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="M115">
+        <v>276</v>
+      </c>
+      <c r="L115" t="s">
+        <v>332</v>
+      </c>
+      <c r="M115" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N115">
         <v>0</v>
       </c>
-      <c r="N115" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="O115" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="P115" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="Q115" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="R115">
-        <v>20</v>
+        <v>176</v>
+      </c>
+      <c r="R115" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="S115">
         <v>20</v>
       </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T115">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>47</v>
       </c>
@@ -8166,41 +8636,44 @@
       <c r="H116" s="4">
         <v>583.06403436800008</v>
       </c>
-      <c r="I116" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="J116" t="s">
-        <v>234</v>
+      <c r="I116" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J116" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="K116" t="s">
-        <v>291</v>
-      </c>
-      <c r="L116" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="M116">
+        <v>276</v>
+      </c>
+      <c r="L116" t="s">
+        <v>332</v>
+      </c>
+      <c r="M116" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N116">
         <v>0</v>
       </c>
-      <c r="N116" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="O116" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="P116" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="Q116" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="R116">
-        <v>20</v>
+        <v>176</v>
+      </c>
+      <c r="R116" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="S116">
         <v>20</v>
       </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T116">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>61</v>
       </c>
@@ -8225,41 +8698,44 @@
       <c r="H117" s="4">
         <v>636.71699187500008</v>
       </c>
-      <c r="I117" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="J117" t="s">
-        <v>234</v>
+      <c r="I117" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J117" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="K117" t="s">
-        <v>291</v>
-      </c>
-      <c r="L117" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="M117">
+        <v>276</v>
+      </c>
+      <c r="L117" t="s">
+        <v>332</v>
+      </c>
+      <c r="M117" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N117">
         <v>0</v>
       </c>
-      <c r="N117" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="O117" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="P117" s="6" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="Q117" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="R117">
-        <v>20</v>
+        <v>176</v>
+      </c>
+      <c r="R117" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="S117">
         <v>20</v>
       </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T117">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>64</v>
       </c>
@@ -8284,41 +8760,44 @@
       <c r="H118" s="4">
         <v>691.83903215792009</v>
       </c>
-      <c r="I118" s="6" t="s">
-        <v>134</v>
+      <c r="I118" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="K118" t="s">
-        <v>291</v>
-      </c>
-      <c r="L118" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="M118">
+        <v>176</v>
+      </c>
+      <c r="K118" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="L118" t="s">
+        <v>332</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N118">
         <v>1</v>
       </c>
-      <c r="N118" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="O118" s="6" t="s">
-        <v>282</v>
+        <v>176</v>
       </c>
       <c r="P118" s="6" t="s">
-        <v>134</v>
+        <v>324</v>
       </c>
       <c r="Q118" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="R118">
-        <v>20</v>
+        <v>176</v>
+      </c>
+      <c r="R118" s="6" t="s">
+        <v>277</v>
       </c>
       <c r="S118">
         <v>20</v>
       </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T118">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>57</v>
       </c>
@@ -8343,41 +8822,44 @@
       <c r="H119" s="4">
         <v>3575.9451687687501</v>
       </c>
-      <c r="I119" s="9">
+      <c r="I119" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J119" s="10">
         <v>44135</v>
       </c>
-      <c r="J119" t="s">
-        <v>236</v>
-      </c>
       <c r="K119" t="s">
-        <v>239</v>
-      </c>
-      <c r="L119" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="M119">
+        <v>278</v>
+      </c>
+      <c r="L119" t="s">
+        <v>281</v>
+      </c>
+      <c r="M119" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="N119">
         <v>1</v>
       </c>
-      <c r="N119" t="s">
-        <v>275</v>
-      </c>
-      <c r="O119" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="P119" s="6">
+      <c r="O119" t="s">
+        <v>317</v>
+      </c>
+      <c r="P119" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q119" s="6">
         <v>11.5</v>
       </c>
-      <c r="Q119" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="R119">
-        <v>20</v>
+      <c r="R119" s="6" t="s">
+        <v>277</v>
       </c>
       <c r="S119">
         <v>20</v>
       </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T119">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>71</v>
       </c>
@@ -8402,41 +8884,44 @@
       <c r="H120" s="4">
         <v>5049.4681467</v>
       </c>
-      <c r="I120" s="10">
+      <c r="I120" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J120" s="11">
         <v>44135</v>
       </c>
-      <c r="J120" t="s">
-        <v>237</v>
-      </c>
       <c r="K120" t="s">
-        <v>240</v>
-      </c>
-      <c r="L120" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="M120">
+        <v>279</v>
+      </c>
+      <c r="L120" t="s">
+        <v>282</v>
+      </c>
+      <c r="M120" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="N120">
         <v>1</v>
       </c>
-      <c r="N120" t="s">
-        <v>275</v>
-      </c>
-      <c r="O120" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="P120" s="6">
+      <c r="O120" t="s">
+        <v>317</v>
+      </c>
+      <c r="P120" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q120" s="6">
         <v>11.5</v>
       </c>
-      <c r="Q120" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="R120">
-        <v>20</v>
+      <c r="R120" s="6" t="s">
+        <v>277</v>
       </c>
       <c r="S120">
         <v>20</v>
       </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T120">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>54</v>
       </c>
@@ -8461,42 +8946,45 @@
       <c r="H121" s="4">
         <v>3702.1759644867498</v>
       </c>
-      <c r="I121" s="10">
+      <c r="I121" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J121" s="11">
         <v>44135</v>
       </c>
-      <c r="J121" t="s">
-        <v>238</v>
-      </c>
       <c r="K121" t="s">
-        <v>241</v>
-      </c>
-      <c r="L121" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="M121">
+        <v>280</v>
+      </c>
+      <c r="L121" t="s">
+        <v>283</v>
+      </c>
+      <c r="M121" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="N121">
         <v>1</v>
       </c>
-      <c r="N121" t="s">
-        <v>275</v>
-      </c>
-      <c r="O121" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="P121" s="6">
+      <c r="O121" t="s">
+        <v>317</v>
+      </c>
+      <c r="P121" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q121" s="6">
         <v>11.5</v>
       </c>
-      <c r="Q121" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="R121">
-        <v>20</v>
+      <c r="R121" s="6" t="s">
+        <v>277</v>
       </c>
       <c r="S121">
         <v>20</v>
       </c>
+      <c r="T121">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AU132">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AV132">
     <sortCondition ref="B2:B132"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
